--- a/sample_datasets/example_medical.xlsx
+++ b/sample_datasets/example_medical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Projects\2023-6a\sample_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D4179-F6BF-4F6E-955F-4D5A389E587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91013BE8-30EA-4802-B53F-31FA938EF150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8830" yWindow="3450" windowWidth="28800" windowHeight="15910" xr2:uid="{299E1C44-E3F8-42D2-8E3E-9E29B260EE5B}"/>
   </bookViews>
@@ -3451,7 +3451,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3523,6 +3523,9 @@
       <c r="H2">
         <v>88</v>
       </c>
+      <c r="I2">
+        <v>1.06</v>
+      </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
@@ -3552,6 +3555,9 @@
       <c r="F3">
         <v>0.73</v>
       </c>
+      <c r="I3">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
@@ -3584,6 +3590,9 @@
       <c r="H4">
         <v>79</v>
       </c>
+      <c r="I4">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
@@ -3616,6 +3625,9 @@
       <c r="H5">
         <v>100</v>
       </c>
+      <c r="I5">
+        <v>1.36</v>
+      </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
@@ -3648,6 +3660,9 @@
       <c r="H6">
         <v>73</v>
       </c>
+      <c r="I6">
+        <v>1.74</v>
+      </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
@@ -3680,6 +3695,9 @@
       <c r="H7">
         <v>88</v>
       </c>
+      <c r="I7">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
@@ -3712,6 +3730,9 @@
       <c r="H8">
         <v>65</v>
       </c>
+      <c r="I8">
+        <v>1.97</v>
+      </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
@@ -3744,6 +3765,9 @@
       <c r="H9">
         <v>73</v>
       </c>
+      <c r="I9">
+        <v>1.22</v>
+      </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
@@ -3776,6 +3800,9 @@
       <c r="H10">
         <v>71</v>
       </c>
+      <c r="I10">
+        <v>1.06</v>
+      </c>
       <c r="J10" t="s">
         <v>20</v>
       </c>
@@ -3808,6 +3835,9 @@
       <c r="H11">
         <v>85</v>
       </c>
+      <c r="I11">
+        <v>1.03</v>
+      </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
@@ -3840,6 +3870,9 @@
       <c r="H12">
         <v>63</v>
       </c>
+      <c r="I12">
+        <v>1.08</v>
+      </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
@@ -3872,6 +3905,9 @@
       <c r="H13">
         <v>68</v>
       </c>
+      <c r="I13">
+        <v>1.28</v>
+      </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
@@ -3904,6 +3940,9 @@
       <c r="H14">
         <v>57</v>
       </c>
+      <c r="I14">
+        <v>1.24</v>
+      </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
@@ -3936,6 +3975,9 @@
       <c r="H15">
         <v>95</v>
       </c>
+      <c r="I15">
+        <v>1.44</v>
+      </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
@@ -3968,6 +4010,9 @@
       <c r="H16">
         <v>79</v>
       </c>
+      <c r="I16">
+        <v>1.66</v>
+      </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
@@ -4000,6 +4045,9 @@
       <c r="H17">
         <v>87</v>
       </c>
+      <c r="I17">
+        <v>1.24</v>
+      </c>
       <c r="J17" t="s">
         <v>18</v>
       </c>
@@ -4032,6 +4080,9 @@
       <c r="H18">
         <v>77</v>
       </c>
+      <c r="I18">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
@@ -4064,6 +4115,9 @@
       <c r="H19">
         <v>62</v>
       </c>
+      <c r="I19">
+        <v>1.33</v>
+      </c>
       <c r="J19" t="s">
         <v>20</v>
       </c>
@@ -4096,6 +4150,9 @@
       <c r="H20">
         <v>74</v>
       </c>
+      <c r="I20">
+        <v>1.66</v>
+      </c>
       <c r="J20" t="s">
         <v>18</v>
       </c>
@@ -4128,6 +4185,9 @@
       <c r="H21">
         <v>93</v>
       </c>
+      <c r="I21">
+        <v>1.37</v>
+      </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
@@ -4160,6 +4220,9 @@
       <c r="H22">
         <v>93</v>
       </c>
+      <c r="I22">
+        <v>1.75</v>
+      </c>
       <c r="J22" t="s">
         <v>20</v>
       </c>
@@ -4192,6 +4255,9 @@
       <c r="H23">
         <v>53</v>
       </c>
+      <c r="I23">
+        <v>1.72</v>
+      </c>
       <c r="J23" t="s">
         <v>18</v>
       </c>
@@ -4224,6 +4290,9 @@
       <c r="H24">
         <v>88</v>
       </c>
+      <c r="I24">
+        <v>1.38</v>
+      </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
@@ -4256,6 +4325,9 @@
       <c r="H25">
         <v>66</v>
       </c>
+      <c r="I25">
+        <v>1.86</v>
+      </c>
       <c r="J25" t="s">
         <v>20</v>
       </c>
@@ -4288,6 +4360,9 @@
       <c r="H26">
         <v>58</v>
       </c>
+      <c r="I26">
+        <v>1.39</v>
+      </c>
       <c r="J26" t="s">
         <v>18</v>
       </c>
@@ -4320,6 +4395,9 @@
       <c r="H27">
         <v>79</v>
       </c>
+      <c r="I27">
+        <v>1.55</v>
+      </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
@@ -4352,6 +4430,9 @@
       <c r="H28">
         <v>76</v>
       </c>
+      <c r="I28">
+        <v>1.96</v>
+      </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
@@ -4384,6 +4465,9 @@
       <c r="H29">
         <v>99</v>
       </c>
+      <c r="I29">
+        <v>1.45</v>
+      </c>
       <c r="J29" t="s">
         <v>18</v>
       </c>
@@ -4416,6 +4500,9 @@
       <c r="H30">
         <v>70</v>
       </c>
+      <c r="I30">
+        <v>1.74</v>
+      </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
@@ -4448,6 +4535,9 @@
       <c r="H31">
         <v>88</v>
       </c>
+      <c r="I31">
+        <v>1.52</v>
+      </c>
       <c r="J31" t="s">
         <v>20</v>
       </c>
@@ -4480,6 +4570,9 @@
       <c r="H32">
         <v>97</v>
       </c>
+      <c r="I32">
+        <v>1.32</v>
+      </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
@@ -4512,6 +4605,9 @@
       <c r="H33">
         <v>60</v>
       </c>
+      <c r="I33">
+        <v>1.21</v>
+      </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
@@ -4544,6 +4640,9 @@
       <c r="H34">
         <v>88</v>
       </c>
+      <c r="I34">
+        <v>1.32</v>
+      </c>
       <c r="J34" t="s">
         <v>20</v>
       </c>
@@ -4576,6 +4675,9 @@
       <c r="H35">
         <v>72</v>
       </c>
+      <c r="I35">
+        <v>1.99</v>
+      </c>
       <c r="J35" t="s">
         <v>18</v>
       </c>
@@ -4608,6 +4710,9 @@
       <c r="H36">
         <v>99</v>
       </c>
+      <c r="I36">
+        <v>1.94</v>
+      </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
@@ -4640,6 +4745,9 @@
       <c r="H37">
         <v>68</v>
       </c>
+      <c r="I37">
+        <v>1.43</v>
+      </c>
       <c r="J37" t="s">
         <v>20</v>
       </c>
@@ -4672,6 +4780,9 @@
       <c r="H38">
         <v>73</v>
       </c>
+      <c r="I38">
+        <v>1.23</v>
+      </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
@@ -4704,6 +4815,9 @@
       <c r="H39">
         <v>64</v>
       </c>
+      <c r="I39">
+        <v>1.22</v>
+      </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
@@ -4736,6 +4850,9 @@
       <c r="H40">
         <v>64</v>
       </c>
+      <c r="I40">
+        <v>1.61</v>
+      </c>
       <c r="J40" t="s">
         <v>20</v>
       </c>
@@ -4768,6 +4885,9 @@
       <c r="H41">
         <v>72</v>
       </c>
+      <c r="I41">
+        <v>1.74</v>
+      </c>
       <c r="J41" t="s">
         <v>18</v>
       </c>
@@ -4800,6 +4920,9 @@
       <c r="H42">
         <v>99</v>
       </c>
+      <c r="I42">
+        <v>1.01</v>
+      </c>
       <c r="J42" t="s">
         <v>19</v>
       </c>
@@ -4832,6 +4955,9 @@
       <c r="H43">
         <v>69</v>
       </c>
+      <c r="I43">
+        <v>1.75</v>
+      </c>
       <c r="J43" t="s">
         <v>20</v>
       </c>
@@ -4864,6 +4990,9 @@
       <c r="H44">
         <v>86</v>
       </c>
+      <c r="I44">
+        <v>1.07</v>
+      </c>
       <c r="J44" t="s">
         <v>18</v>
       </c>
@@ -4896,6 +5025,9 @@
       <c r="H45">
         <v>80</v>
       </c>
+      <c r="I45">
+        <v>1.22</v>
+      </c>
       <c r="J45" t="s">
         <v>19</v>
       </c>
@@ -4928,6 +5060,9 @@
       <c r="H46">
         <v>90</v>
       </c>
+      <c r="I46">
+        <v>1.75</v>
+      </c>
       <c r="J46" t="s">
         <v>20</v>
       </c>
@@ -4960,6 +5095,9 @@
       <c r="H47">
         <v>100</v>
       </c>
+      <c r="I47">
+        <v>1.81</v>
+      </c>
       <c r="J47" t="s">
         <v>18</v>
       </c>
@@ -4992,6 +5130,9 @@
       <c r="H48">
         <v>54</v>
       </c>
+      <c r="I48">
+        <v>1.72</v>
+      </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
@@ -5024,6 +5165,9 @@
       <c r="H49">
         <v>84</v>
       </c>
+      <c r="I49">
+        <v>1.63</v>
+      </c>
       <c r="J49" t="s">
         <v>20</v>
       </c>
@@ -5056,6 +5200,9 @@
       <c r="H50">
         <v>64</v>
       </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
       <c r="J50" t="s">
         <v>18</v>
       </c>
@@ -5088,6 +5235,9 @@
       <c r="H51">
         <v>62</v>
       </c>
+      <c r="I51">
+        <v>1.52</v>
+      </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
@@ -5120,6 +5270,9 @@
       <c r="H52">
         <v>57</v>
       </c>
+      <c r="I52">
+        <v>1.35</v>
+      </c>
       <c r="J52" t="s">
         <v>20</v>
       </c>
@@ -5152,6 +5305,9 @@
       <c r="H53">
         <v>61</v>
       </c>
+      <c r="I53">
+        <v>1.94</v>
+      </c>
       <c r="J53" t="s">
         <v>18</v>
       </c>
@@ -5184,6 +5340,9 @@
       <c r="H54">
         <v>93</v>
       </c>
+      <c r="I54">
+        <v>1.26</v>
+      </c>
       <c r="J54" t="s">
         <v>19</v>
       </c>
@@ -5216,6 +5375,9 @@
       <c r="H55">
         <v>98</v>
       </c>
+      <c r="I55">
+        <v>1.53</v>
+      </c>
       <c r="J55" t="s">
         <v>20</v>
       </c>
@@ -5248,6 +5410,9 @@
       <c r="H56">
         <v>70</v>
       </c>
+      <c r="I56">
+        <v>1.61</v>
+      </c>
       <c r="J56" t="s">
         <v>18</v>
       </c>
@@ -5280,6 +5445,9 @@
       <c r="H57">
         <v>67</v>
       </c>
+      <c r="I57">
+        <v>1.35</v>
+      </c>
       <c r="J57" t="s">
         <v>19</v>
       </c>
@@ -5312,6 +5480,9 @@
       <c r="H58">
         <v>61</v>
       </c>
+      <c r="I58">
+        <v>1.76</v>
+      </c>
       <c r="J58" t="s">
         <v>20</v>
       </c>
@@ -5344,6 +5515,9 @@
       <c r="H59">
         <v>76</v>
       </c>
+      <c r="I59">
+        <v>1.52</v>
+      </c>
       <c r="J59" t="s">
         <v>18</v>
       </c>
@@ -5376,6 +5550,9 @@
       <c r="H60">
         <v>89</v>
       </c>
+      <c r="I60">
+        <v>1.28</v>
+      </c>
       <c r="J60" t="s">
         <v>19</v>
       </c>
@@ -5408,6 +5585,9 @@
       <c r="H61">
         <v>68</v>
       </c>
+      <c r="I61">
+        <v>1.75</v>
+      </c>
       <c r="J61" t="s">
         <v>20</v>
       </c>
@@ -5440,6 +5620,9 @@
       <c r="H62">
         <v>72</v>
       </c>
+      <c r="I62">
+        <v>1.85</v>
+      </c>
       <c r="J62" t="s">
         <v>18</v>
       </c>
@@ -5472,6 +5655,9 @@
       <c r="H63">
         <v>67</v>
       </c>
+      <c r="I63">
+        <v>1.24</v>
+      </c>
       <c r="J63" t="s">
         <v>19</v>
       </c>
@@ -5504,6 +5690,9 @@
       <c r="H64">
         <v>79</v>
       </c>
+      <c r="I64">
+        <v>1.44</v>
+      </c>
       <c r="J64" t="s">
         <v>20</v>
       </c>
@@ -5536,6 +5725,9 @@
       <c r="H65">
         <v>58</v>
       </c>
+      <c r="I65">
+        <v>1.18</v>
+      </c>
       <c r="J65" t="s">
         <v>18</v>
       </c>
@@ -5568,6 +5760,9 @@
       <c r="H66">
         <v>73</v>
       </c>
+      <c r="I66">
+        <v>1.62</v>
+      </c>
       <c r="J66" t="s">
         <v>19</v>
       </c>
@@ -5600,6 +5795,9 @@
       <c r="H67">
         <v>83</v>
       </c>
+      <c r="I67">
+        <v>1.04</v>
+      </c>
       <c r="J67" t="s">
         <v>20</v>
       </c>
@@ -5632,6 +5830,9 @@
       <c r="H68">
         <v>51</v>
       </c>
+      <c r="I68">
+        <v>1.41</v>
+      </c>
       <c r="J68" t="s">
         <v>18</v>
       </c>
@@ -5664,6 +5865,9 @@
       <c r="H69">
         <v>72</v>
       </c>
+      <c r="I69">
+        <v>1.36</v>
+      </c>
       <c r="J69" t="s">
         <v>19</v>
       </c>
@@ -5696,6 +5900,9 @@
       <c r="H70">
         <v>71</v>
       </c>
+      <c r="I70">
+        <v>1.86</v>
+      </c>
       <c r="J70" t="s">
         <v>20</v>
       </c>
@@ -5728,6 +5935,9 @@
       <c r="H71">
         <v>61</v>
       </c>
+      <c r="I71">
+        <v>1.2</v>
+      </c>
       <c r="J71" t="s">
         <v>18</v>
       </c>
@@ -5760,6 +5970,9 @@
       <c r="H72">
         <v>86</v>
       </c>
+      <c r="I72">
+        <v>1.28</v>
+      </c>
       <c r="J72" t="s">
         <v>19</v>
       </c>
@@ -5792,6 +6005,9 @@
       <c r="H73">
         <v>55</v>
       </c>
+      <c r="I73">
+        <v>1.97</v>
+      </c>
       <c r="J73" t="s">
         <v>20</v>
       </c>
@@ -5824,6 +6040,9 @@
       <c r="H74">
         <v>64</v>
       </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
       <c r="J74" t="s">
         <v>18</v>
       </c>
@@ -5856,6 +6075,9 @@
       <c r="H75">
         <v>100</v>
       </c>
+      <c r="I75">
+        <v>1.68</v>
+      </c>
       <c r="J75" t="s">
         <v>19</v>
       </c>
@@ -5888,6 +6110,9 @@
       <c r="H76">
         <v>67</v>
       </c>
+      <c r="I76">
+        <v>1.34</v>
+      </c>
       <c r="J76" t="s">
         <v>20</v>
       </c>
@@ -5920,6 +6145,9 @@
       <c r="H77">
         <v>63</v>
       </c>
+      <c r="I77">
+        <v>1.66</v>
+      </c>
       <c r="J77" t="s">
         <v>18</v>
       </c>
@@ -5952,6 +6180,9 @@
       <c r="H78">
         <v>58</v>
       </c>
+      <c r="I78">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="J78" t="s">
         <v>19</v>
       </c>
@@ -5984,6 +6215,9 @@
       <c r="H79">
         <v>83</v>
       </c>
+      <c r="I79">
+        <v>1.66</v>
+      </c>
       <c r="J79" t="s">
         <v>20</v>
       </c>
@@ -6016,6 +6250,9 @@
       <c r="H80">
         <v>61</v>
       </c>
+      <c r="I80">
+        <v>1.28</v>
+      </c>
       <c r="J80" t="s">
         <v>18</v>
       </c>
@@ -6048,6 +6285,9 @@
       <c r="H81">
         <v>53</v>
       </c>
+      <c r="I81">
+        <v>1.34</v>
+      </c>
       <c r="J81" t="s">
         <v>19</v>
       </c>
@@ -6080,6 +6320,9 @@
       <c r="H82">
         <v>96</v>
       </c>
+      <c r="I82">
+        <v>1.89</v>
+      </c>
       <c r="J82" t="s">
         <v>20</v>
       </c>
@@ -6112,6 +6355,9 @@
       <c r="H83">
         <v>59</v>
       </c>
+      <c r="I83">
+        <v>1.42</v>
+      </c>
       <c r="J83" t="s">
         <v>18</v>
       </c>
@@ -6144,6 +6390,9 @@
       <c r="H84">
         <v>86</v>
       </c>
+      <c r="I84">
+        <v>1.24</v>
+      </c>
       <c r="J84" t="s">
         <v>19</v>
       </c>
@@ -6176,6 +6425,9 @@
       <c r="H85">
         <v>98</v>
       </c>
+      <c r="I85">
+        <v>1.07</v>
+      </c>
       <c r="J85" t="s">
         <v>20</v>
       </c>
@@ -6208,6 +6460,9 @@
       <c r="H86">
         <v>50</v>
       </c>
+      <c r="I86">
+        <v>1.9</v>
+      </c>
       <c r="J86" t="s">
         <v>18</v>
       </c>
@@ -6240,6 +6495,9 @@
       <c r="H87">
         <v>54</v>
       </c>
+      <c r="I87">
+        <v>1.25</v>
+      </c>
       <c r="J87" t="s">
         <v>19</v>
       </c>
@@ -6272,6 +6530,9 @@
       <c r="H88">
         <v>63</v>
       </c>
+      <c r="I88">
+        <v>1.78</v>
+      </c>
       <c r="J88" t="s">
         <v>20</v>
       </c>
@@ -6304,6 +6565,9 @@
       <c r="H89">
         <v>97</v>
       </c>
+      <c r="I89">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="J89" t="s">
         <v>18</v>
       </c>
@@ -6336,6 +6600,9 @@
       <c r="H90">
         <v>68</v>
       </c>
+      <c r="I90">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="J90" t="s">
         <v>19</v>
       </c>
@@ -6368,6 +6635,9 @@
       <c r="H91">
         <v>55</v>
       </c>
+      <c r="I91">
+        <v>1.04</v>
+      </c>
       <c r="J91" t="s">
         <v>20</v>
       </c>
@@ -6400,6 +6670,9 @@
       <c r="H92">
         <v>95</v>
       </c>
+      <c r="I92">
+        <v>1.03</v>
+      </c>
       <c r="J92" t="s">
         <v>18</v>
       </c>
@@ -6432,6 +6705,9 @@
       <c r="H93">
         <v>51</v>
       </c>
+      <c r="I93">
+        <v>1.18</v>
+      </c>
       <c r="J93" t="s">
         <v>19</v>
       </c>
@@ -6464,6 +6740,9 @@
       <c r="H94">
         <v>53</v>
       </c>
+      <c r="I94">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="J94" t="s">
         <v>20</v>
       </c>
@@ -6496,6 +6775,9 @@
       <c r="H95">
         <v>63</v>
       </c>
+      <c r="I95">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J95" t="s">
         <v>18</v>
       </c>
@@ -6528,6 +6810,9 @@
       <c r="H96">
         <v>82</v>
       </c>
+      <c r="I96">
+        <v>1.45</v>
+      </c>
       <c r="J96" t="s">
         <v>19</v>
       </c>
@@ -6560,6 +6845,9 @@
       <c r="H97">
         <v>72</v>
       </c>
+      <c r="I97">
+        <v>1.66</v>
+      </c>
       <c r="J97" t="s">
         <v>20</v>
       </c>
@@ -6592,6 +6880,9 @@
       <c r="H98">
         <v>95</v>
       </c>
+      <c r="I98">
+        <v>1.76</v>
+      </c>
       <c r="J98" t="s">
         <v>18</v>
       </c>
@@ -6624,6 +6915,9 @@
       <c r="H99">
         <v>70</v>
       </c>
+      <c r="I99">
+        <v>1.34</v>
+      </c>
       <c r="J99" t="s">
         <v>19</v>
       </c>
@@ -6656,6 +6950,9 @@
       <c r="H100">
         <v>73</v>
       </c>
+      <c r="I100">
+        <v>1.66</v>
+      </c>
       <c r="J100" t="s">
         <v>20</v>
       </c>
@@ -6688,6 +6985,9 @@
       <c r="H101">
         <v>81</v>
       </c>
+      <c r="I101">
+        <v>1.56</v>
+      </c>
       <c r="J101" t="s">
         <v>18</v>
       </c>
@@ -6723,6 +7023,9 @@
       <c r="H102">
         <v>74</v>
       </c>
+      <c r="I102">
+        <v>1.05</v>
+      </c>
       <c r="J102" t="s">
         <v>19</v>
       </c>
@@ -6758,6 +7061,9 @@
       <c r="H103">
         <v>69</v>
       </c>
+      <c r="I103">
+        <v>1.21</v>
+      </c>
       <c r="J103" t="s">
         <v>20</v>
       </c>
@@ -6793,6 +7099,9 @@
       <c r="H104">
         <v>84</v>
       </c>
+      <c r="I104">
+        <v>1.22</v>
+      </c>
       <c r="J104" t="s">
         <v>18</v>
       </c>
@@ -6828,6 +7137,9 @@
       <c r="H105">
         <v>100</v>
       </c>
+      <c r="I105">
+        <v>1.75</v>
+      </c>
       <c r="J105" t="s">
         <v>19</v>
       </c>
@@ -6863,6 +7175,9 @@
       <c r="H106">
         <v>59</v>
       </c>
+      <c r="I106">
+        <v>1.66</v>
+      </c>
       <c r="J106" t="s">
         <v>20</v>
       </c>
@@ -6898,6 +7213,9 @@
       <c r="H107">
         <v>95</v>
       </c>
+      <c r="I107">
+        <v>1.99</v>
+      </c>
       <c r="J107" t="s">
         <v>18</v>
       </c>
@@ -6933,6 +7251,9 @@
       <c r="H108">
         <v>95</v>
       </c>
+      <c r="I108">
+        <v>1.51</v>
+      </c>
       <c r="J108" t="s">
         <v>19</v>
       </c>
@@ -6968,6 +7289,9 @@
       <c r="H109">
         <v>76</v>
       </c>
+      <c r="I109">
+        <v>1.25</v>
+      </c>
       <c r="J109" t="s">
         <v>20</v>
       </c>
@@ -7003,6 +7327,9 @@
       <c r="H110">
         <v>98</v>
       </c>
+      <c r="I110">
+        <v>1.49</v>
+      </c>
       <c r="J110" t="s">
         <v>18</v>
       </c>
@@ -7038,6 +7365,9 @@
       <c r="H111">
         <v>73</v>
       </c>
+      <c r="I111">
+        <v>1.93</v>
+      </c>
       <c r="J111" t="s">
         <v>19</v>
       </c>
@@ -7073,6 +7403,9 @@
       <c r="H112">
         <v>56</v>
       </c>
+      <c r="I112">
+        <v>1.71</v>
+      </c>
       <c r="J112" t="s">
         <v>20</v>
       </c>
@@ -7108,6 +7441,9 @@
       <c r="H113">
         <v>89</v>
       </c>
+      <c r="I113">
+        <v>1.54</v>
+      </c>
       <c r="J113" t="s">
         <v>18</v>
       </c>
@@ -7143,6 +7479,9 @@
       <c r="H114">
         <v>75</v>
       </c>
+      <c r="I114">
+        <v>1.36</v>
+      </c>
       <c r="J114" t="s">
         <v>19</v>
       </c>
@@ -7178,6 +7517,9 @@
       <c r="H115">
         <v>88</v>
       </c>
+      <c r="I115">
+        <v>1.75</v>
+      </c>
       <c r="J115" t="s">
         <v>20</v>
       </c>
@@ -7213,6 +7555,9 @@
       <c r="H116">
         <v>77</v>
       </c>
+      <c r="I116">
+        <v>1.43</v>
+      </c>
       <c r="J116" t="s">
         <v>18</v>
       </c>
@@ -7248,6 +7593,9 @@
       <c r="H117">
         <v>100</v>
       </c>
+      <c r="I117">
+        <v>1.83</v>
+      </c>
       <c r="J117" t="s">
         <v>19</v>
       </c>
@@ -7283,6 +7631,9 @@
       <c r="H118">
         <v>80</v>
       </c>
+      <c r="I118">
+        <v>1.35</v>
+      </c>
       <c r="J118" t="s">
         <v>20</v>
       </c>
@@ -7318,6 +7669,9 @@
       <c r="H119">
         <v>63</v>
       </c>
+      <c r="I119">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="J119" t="s">
         <v>18</v>
       </c>
@@ -7353,6 +7707,9 @@
       <c r="H120">
         <v>96</v>
       </c>
+      <c r="I120">
+        <v>1.85</v>
+      </c>
       <c r="J120" t="s">
         <v>19</v>
       </c>
@@ -7388,6 +7745,9 @@
       <c r="H121">
         <v>96</v>
       </c>
+      <c r="I121">
+        <v>1.78</v>
+      </c>
       <c r="J121" t="s">
         <v>20</v>
       </c>
@@ -7423,6 +7783,9 @@
       <c r="H122">
         <v>81</v>
       </c>
+      <c r="I122">
+        <v>1.67</v>
+      </c>
       <c r="J122" t="s">
         <v>18</v>
       </c>
@@ -7458,6 +7821,9 @@
       <c r="H123">
         <v>87</v>
       </c>
+      <c r="I123">
+        <v>1.44</v>
+      </c>
       <c r="J123" t="s">
         <v>19</v>
       </c>
@@ -7493,6 +7859,9 @@
       <c r="H124">
         <v>68</v>
       </c>
+      <c r="I124">
+        <v>1.7</v>
+      </c>
       <c r="J124" t="s">
         <v>20</v>
       </c>
@@ -7528,6 +7897,9 @@
       <c r="H125">
         <v>100</v>
       </c>
+      <c r="I125">
+        <v>1.2</v>
+      </c>
       <c r="J125" t="s">
         <v>18</v>
       </c>
@@ -7563,6 +7935,9 @@
       <c r="H126">
         <v>70</v>
       </c>
+      <c r="I126">
+        <v>1.45</v>
+      </c>
       <c r="J126" t="s">
         <v>19</v>
       </c>
@@ -7598,6 +7973,9 @@
       <c r="H127">
         <v>74</v>
       </c>
+      <c r="I127">
+        <v>1.01</v>
+      </c>
       <c r="J127" t="s">
         <v>20</v>
       </c>
@@ -7633,6 +8011,9 @@
       <c r="H128">
         <v>51</v>
       </c>
+      <c r="I128">
+        <v>1.61</v>
+      </c>
       <c r="J128" t="s">
         <v>18</v>
       </c>
@@ -7668,6 +8049,9 @@
       <c r="H129">
         <v>71</v>
       </c>
+      <c r="I129">
+        <v>1.65</v>
+      </c>
       <c r="J129" t="s">
         <v>19</v>
       </c>
@@ -7703,6 +8087,9 @@
       <c r="H130">
         <v>90</v>
       </c>
+      <c r="I130">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="J130" t="s">
         <v>20</v>
       </c>
@@ -7738,6 +8125,9 @@
       <c r="H131">
         <v>88</v>
       </c>
+      <c r="I131">
+        <v>1.03</v>
+      </c>
       <c r="J131" t="s">
         <v>18</v>
       </c>
@@ -7773,6 +8163,9 @@
       <c r="H132">
         <v>78</v>
       </c>
+      <c r="I132">
+        <v>1.91</v>
+      </c>
       <c r="J132" t="s">
         <v>19</v>
       </c>
@@ -7808,6 +8201,9 @@
       <c r="H133">
         <v>69</v>
       </c>
+      <c r="I133">
+        <v>1.9</v>
+      </c>
       <c r="J133" t="s">
         <v>20</v>
       </c>
@@ -7843,6 +8239,9 @@
       <c r="H134">
         <v>83</v>
       </c>
+      <c r="I134">
+        <v>1.2</v>
+      </c>
       <c r="J134" t="s">
         <v>18</v>
       </c>
@@ -7878,6 +8277,9 @@
       <c r="H135">
         <v>53</v>
       </c>
+      <c r="I135">
+        <v>1.74</v>
+      </c>
       <c r="J135" t="s">
         <v>19</v>
       </c>
@@ -7913,6 +8315,9 @@
       <c r="H136">
         <v>97</v>
       </c>
+      <c r="I136">
+        <v>1.8</v>
+      </c>
       <c r="J136" t="s">
         <v>20</v>
       </c>
@@ -7948,6 +8353,9 @@
       <c r="H137">
         <v>54</v>
       </c>
+      <c r="I137">
+        <v>1.66</v>
+      </c>
       <c r="J137" t="s">
         <v>18</v>
       </c>
@@ -7983,6 +8391,9 @@
       <c r="H138">
         <v>62</v>
       </c>
+      <c r="I138">
+        <v>1.68</v>
+      </c>
       <c r="J138" t="s">
         <v>19</v>
       </c>
@@ -8018,6 +8429,9 @@
       <c r="H139">
         <v>56</v>
       </c>
+      <c r="I139">
+        <v>1.31</v>
+      </c>
       <c r="J139" t="s">
         <v>20</v>
       </c>
@@ -8053,6 +8467,9 @@
       <c r="H140">
         <v>58</v>
       </c>
+      <c r="I140">
+        <v>1.97</v>
+      </c>
       <c r="J140" t="s">
         <v>18</v>
       </c>
@@ -8088,6 +8505,9 @@
       <c r="H141">
         <v>82</v>
       </c>
+      <c r="I141">
+        <v>1.03</v>
+      </c>
       <c r="J141" t="s">
         <v>19</v>
       </c>
@@ -8123,6 +8543,9 @@
       <c r="H142">
         <v>85</v>
       </c>
+      <c r="I142">
+        <v>1.74</v>
+      </c>
       <c r="J142" t="s">
         <v>20</v>
       </c>
@@ -8158,6 +8581,9 @@
       <c r="H143">
         <v>79</v>
       </c>
+      <c r="I143">
+        <v>1.23</v>
+      </c>
       <c r="J143" t="s">
         <v>18</v>
       </c>
@@ -8193,6 +8619,9 @@
       <c r="H144">
         <v>67</v>
       </c>
+      <c r="I144">
+        <v>1.28</v>
+      </c>
       <c r="J144" t="s">
         <v>19</v>
       </c>
@@ -8228,6 +8657,9 @@
       <c r="H145">
         <v>85</v>
       </c>
+      <c r="I145">
+        <v>1.65</v>
+      </c>
       <c r="J145" t="s">
         <v>20</v>
       </c>
@@ -8263,6 +8695,9 @@
       <c r="H146">
         <v>64</v>
       </c>
+      <c r="I146">
+        <v>1.7</v>
+      </c>
       <c r="J146" t="s">
         <v>18</v>
       </c>
@@ -8298,6 +8733,9 @@
       <c r="H147">
         <v>95</v>
       </c>
+      <c r="I147">
+        <v>1.55</v>
+      </c>
       <c r="J147" t="s">
         <v>19</v>
       </c>
@@ -8333,6 +8771,9 @@
       <c r="H148">
         <v>68</v>
       </c>
+      <c r="I148">
+        <v>1.78</v>
+      </c>
       <c r="J148" t="s">
         <v>20</v>
       </c>
@@ -8368,6 +8809,9 @@
       <c r="H149">
         <v>51</v>
       </c>
+      <c r="I149">
+        <v>1.39</v>
+      </c>
       <c r="J149" t="s">
         <v>18</v>
       </c>
@@ -8403,6 +8847,9 @@
       <c r="H150">
         <v>85</v>
       </c>
+      <c r="I150">
+        <v>1.71</v>
+      </c>
       <c r="J150" t="s">
         <v>19</v>
       </c>
@@ -8438,6 +8885,9 @@
       <c r="H151">
         <v>77</v>
       </c>
+      <c r="I151">
+        <v>1.02</v>
+      </c>
       <c r="J151" t="s">
         <v>20</v>
       </c>
@@ -8473,6 +8923,9 @@
       <c r="H152">
         <v>67</v>
       </c>
+      <c r="I152">
+        <v>1.77</v>
+      </c>
       <c r="J152" t="s">
         <v>18</v>
       </c>
@@ -8508,6 +8961,9 @@
       <c r="H153">
         <v>92</v>
       </c>
+      <c r="I153">
+        <v>1.22</v>
+      </c>
       <c r="J153" t="s">
         <v>19</v>
       </c>
@@ -8543,6 +8999,9 @@
       <c r="H154">
         <v>54</v>
       </c>
+      <c r="I154">
+        <v>1.35</v>
+      </c>
       <c r="J154" t="s">
         <v>20</v>
       </c>
@@ -8578,6 +9037,9 @@
       <c r="H155">
         <v>57</v>
       </c>
+      <c r="I155">
+        <v>1.34</v>
+      </c>
       <c r="J155" t="s">
         <v>18</v>
       </c>
@@ -8613,6 +9075,9 @@
       <c r="H156">
         <v>58</v>
       </c>
+      <c r="I156">
+        <v>1.87</v>
+      </c>
       <c r="J156" t="s">
         <v>19</v>
       </c>
@@ -8648,6 +9113,9 @@
       <c r="H157">
         <v>88</v>
       </c>
+      <c r="I157">
+        <v>1.51</v>
+      </c>
       <c r="J157" t="s">
         <v>20</v>
       </c>
@@ -8683,6 +9151,9 @@
       <c r="H158">
         <v>76</v>
       </c>
+      <c r="I158">
+        <v>1.33</v>
+      </c>
       <c r="J158" t="s">
         <v>18</v>
       </c>
@@ -8718,6 +9189,9 @@
       <c r="H159">
         <v>64</v>
       </c>
+      <c r="I159">
+        <v>1.17</v>
+      </c>
       <c r="J159" t="s">
         <v>19</v>
       </c>
@@ -8753,6 +9227,9 @@
       <c r="H160">
         <v>66</v>
       </c>
+      <c r="I160">
+        <v>1.55</v>
+      </c>
       <c r="J160" t="s">
         <v>20</v>
       </c>
@@ -8788,6 +9265,9 @@
       <c r="H161">
         <v>79</v>
       </c>
+      <c r="I161">
+        <v>1.72</v>
+      </c>
       <c r="J161" t="s">
         <v>18</v>
       </c>
@@ -8823,6 +9303,9 @@
       <c r="H162">
         <v>69</v>
       </c>
+      <c r="I162">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="J162" t="s">
         <v>19</v>
       </c>
@@ -8858,6 +9341,9 @@
       <c r="H163">
         <v>96</v>
       </c>
+      <c r="I163">
+        <v>1.24</v>
+      </c>
       <c r="J163" t="s">
         <v>20</v>
       </c>
@@ -8893,6 +9379,9 @@
       <c r="H164">
         <v>79</v>
       </c>
+      <c r="I164">
+        <v>1.78</v>
+      </c>
       <c r="J164" t="s">
         <v>18</v>
       </c>
@@ -8928,6 +9417,9 @@
       <c r="H165">
         <v>59</v>
       </c>
+      <c r="I165">
+        <v>1.98</v>
+      </c>
       <c r="J165" t="s">
         <v>19</v>
       </c>
@@ -8963,6 +9455,9 @@
       <c r="H166">
         <v>86</v>
       </c>
+      <c r="I166">
+        <v>1.87</v>
+      </c>
       <c r="J166" t="s">
         <v>20</v>
       </c>
@@ -8998,6 +9493,9 @@
       <c r="H167">
         <v>77</v>
       </c>
+      <c r="I167">
+        <v>1.83</v>
+      </c>
       <c r="J167" t="s">
         <v>18</v>
       </c>
@@ -9033,6 +9531,9 @@
       <c r="H168">
         <v>55</v>
       </c>
+      <c r="I168">
+        <v>1.45</v>
+      </c>
       <c r="J168" t="s">
         <v>19</v>
       </c>
@@ -9068,6 +9569,9 @@
       <c r="H169">
         <v>79</v>
       </c>
+      <c r="I169">
+        <v>1.58</v>
+      </c>
       <c r="J169" t="s">
         <v>20</v>
       </c>
@@ -9103,6 +9607,9 @@
       <c r="H170">
         <v>99</v>
       </c>
+      <c r="I170">
+        <v>1.51</v>
+      </c>
       <c r="J170" t="s">
         <v>18</v>
       </c>
@@ -9138,6 +9645,9 @@
       <c r="H171">
         <v>63</v>
       </c>
+      <c r="I171">
+        <v>1.79</v>
+      </c>
       <c r="J171" t="s">
         <v>19</v>
       </c>
@@ -9173,6 +9683,9 @@
       <c r="H172">
         <v>51</v>
       </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
       <c r="J172" t="s">
         <v>20</v>
       </c>
@@ -9208,6 +9721,9 @@
       <c r="H173">
         <v>100</v>
       </c>
+      <c r="I173">
+        <v>1.52</v>
+      </c>
       <c r="J173" t="s">
         <v>18</v>
       </c>
@@ -9243,6 +9759,9 @@
       <c r="H174">
         <v>52</v>
       </c>
+      <c r="I174">
+        <v>1.05</v>
+      </c>
       <c r="J174" t="s">
         <v>19</v>
       </c>
@@ -9278,6 +9797,9 @@
       <c r="H175">
         <v>67</v>
       </c>
+      <c r="I175">
+        <v>1.32</v>
+      </c>
       <c r="J175" t="s">
         <v>20</v>
       </c>
@@ -9313,6 +9835,9 @@
       <c r="H176">
         <v>98</v>
       </c>
+      <c r="I176">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J176" t="s">
         <v>18</v>
       </c>
@@ -9348,6 +9873,9 @@
       <c r="H177">
         <v>61</v>
       </c>
+      <c r="I177">
+        <v>1.93</v>
+      </c>
       <c r="J177" t="s">
         <v>19</v>
       </c>
@@ -9383,6 +9911,9 @@
       <c r="H178">
         <v>74</v>
       </c>
+      <c r="I178">
+        <v>1.87</v>
+      </c>
       <c r="J178" t="s">
         <v>20</v>
       </c>
@@ -9418,6 +9949,9 @@
       <c r="H179">
         <v>72</v>
       </c>
+      <c r="I179">
+        <v>1.83</v>
+      </c>
       <c r="J179" t="s">
         <v>18</v>
       </c>
@@ -9453,6 +9987,9 @@
       <c r="H180">
         <v>90</v>
       </c>
+      <c r="I180">
+        <v>1.79</v>
+      </c>
       <c r="J180" t="s">
         <v>19</v>
       </c>
@@ -9488,6 +10025,9 @@
       <c r="H181">
         <v>61</v>
       </c>
+      <c r="I181">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J181" t="s">
         <v>20</v>
       </c>
@@ -9523,6 +10063,9 @@
       <c r="H182">
         <v>100</v>
       </c>
+      <c r="I182">
+        <v>1.35</v>
+      </c>
       <c r="J182" t="s">
         <v>18</v>
       </c>
@@ -9558,6 +10101,9 @@
       <c r="H183">
         <v>89</v>
       </c>
+      <c r="I183">
+        <v>1.84</v>
+      </c>
       <c r="J183" t="s">
         <v>19</v>
       </c>
@@ -9593,6 +10139,9 @@
       <c r="H184">
         <v>56</v>
       </c>
+      <c r="I184">
+        <v>1.02</v>
+      </c>
       <c r="J184" t="s">
         <v>20</v>
       </c>
@@ -9628,6 +10177,9 @@
       <c r="H185">
         <v>82</v>
       </c>
+      <c r="I185">
+        <v>1.81</v>
+      </c>
       <c r="J185" t="s">
         <v>18</v>
       </c>
@@ -9663,6 +10215,9 @@
       <c r="H186">
         <v>72</v>
       </c>
+      <c r="I186">
+        <v>1.48</v>
+      </c>
       <c r="J186" t="s">
         <v>19</v>
       </c>
@@ -9698,6 +10253,9 @@
       <c r="H187">
         <v>88</v>
       </c>
+      <c r="I187">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="J187" t="s">
         <v>20</v>
       </c>
@@ -9733,6 +10291,9 @@
       <c r="H188">
         <v>73</v>
       </c>
+      <c r="I188">
+        <v>1.2</v>
+      </c>
       <c r="J188" t="s">
         <v>18</v>
       </c>
@@ -9768,6 +10329,9 @@
       <c r="H189">
         <v>93</v>
       </c>
+      <c r="I189">
+        <v>1.66</v>
+      </c>
       <c r="J189" t="s">
         <v>19</v>
       </c>
@@ -9803,6 +10367,9 @@
       <c r="H190">
         <v>90</v>
       </c>
+      <c r="I190">
+        <v>1.84</v>
+      </c>
       <c r="J190" t="s">
         <v>20</v>
       </c>
@@ -9838,6 +10405,9 @@
       <c r="H191">
         <v>60</v>
       </c>
+      <c r="I191">
+        <v>1.81</v>
+      </c>
       <c r="J191" t="s">
         <v>18</v>
       </c>
@@ -9873,6 +10443,9 @@
       <c r="H192">
         <v>78</v>
       </c>
+      <c r="I192">
+        <v>1.92</v>
+      </c>
       <c r="J192" t="s">
         <v>19</v>
       </c>
@@ -9908,6 +10481,9 @@
       <c r="H193">
         <v>100</v>
       </c>
+      <c r="I193">
+        <v>1.69</v>
+      </c>
       <c r="J193" t="s">
         <v>20</v>
       </c>
@@ -9943,6 +10519,9 @@
       <c r="H194">
         <v>97</v>
       </c>
+      <c r="I194">
+        <v>1.83</v>
+      </c>
       <c r="J194" t="s">
         <v>18</v>
       </c>
@@ -9978,6 +10557,9 @@
       <c r="H195">
         <v>65</v>
       </c>
+      <c r="I195">
+        <v>1.58</v>
+      </c>
       <c r="J195" t="s">
         <v>19</v>
       </c>
@@ -10013,6 +10595,9 @@
       <c r="H196">
         <v>92</v>
       </c>
+      <c r="I196">
+        <v>1.93</v>
+      </c>
       <c r="J196" t="s">
         <v>20</v>
       </c>
@@ -10048,6 +10633,9 @@
       <c r="H197">
         <v>100</v>
       </c>
+      <c r="I197">
+        <v>1.62</v>
+      </c>
       <c r="J197" t="s">
         <v>18</v>
       </c>
@@ -10083,6 +10671,9 @@
       <c r="H198">
         <v>79</v>
       </c>
+      <c r="I198">
+        <v>1.65</v>
+      </c>
       <c r="J198" t="s">
         <v>19</v>
       </c>
@@ -10118,6 +10709,9 @@
       <c r="H199">
         <v>74</v>
       </c>
+      <c r="I199">
+        <v>1.75</v>
+      </c>
       <c r="J199" t="s">
         <v>20</v>
       </c>
@@ -10153,6 +10747,9 @@
       <c r="H200">
         <v>77</v>
       </c>
+      <c r="I200">
+        <v>1.65</v>
+      </c>
       <c r="J200" t="s">
         <v>18</v>
       </c>
@@ -10188,6 +10785,9 @@
       <c r="H201">
         <v>79</v>
       </c>
+      <c r="I201">
+        <v>1.78</v>
+      </c>
       <c r="J201" t="s">
         <v>19</v>
       </c>
@@ -10223,6 +10823,9 @@
       <c r="H202">
         <v>97</v>
       </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
       <c r="J202" t="s">
         <v>20</v>
       </c>
@@ -10258,6 +10861,9 @@
       <c r="H203">
         <v>59</v>
       </c>
+      <c r="I203">
+        <v>1.21</v>
+      </c>
       <c r="J203" t="s">
         <v>18</v>
       </c>
@@ -10293,6 +10899,9 @@
       <c r="H204">
         <v>66</v>
       </c>
+      <c r="I204">
+        <v>1.07</v>
+      </c>
       <c r="J204" t="s">
         <v>19</v>
       </c>
@@ -10328,6 +10937,9 @@
       <c r="H205">
         <v>64</v>
       </c>
+      <c r="I205">
+        <v>1.63</v>
+      </c>
       <c r="J205" t="s">
         <v>20</v>
       </c>
@@ -10363,6 +10975,9 @@
       <c r="H206">
         <v>67</v>
       </c>
+      <c r="I206">
+        <v>1.49</v>
+      </c>
       <c r="J206" t="s">
         <v>18</v>
       </c>
@@ -10398,6 +11013,9 @@
       <c r="H207">
         <v>58</v>
       </c>
+      <c r="I207">
+        <v>1.67</v>
+      </c>
       <c r="J207" t="s">
         <v>19</v>
       </c>
@@ -10433,6 +11051,9 @@
       <c r="H208">
         <v>99</v>
       </c>
+      <c r="I208">
+        <v>1.07</v>
+      </c>
       <c r="J208" t="s">
         <v>20</v>
       </c>
@@ -10468,6 +11089,9 @@
       <c r="H209">
         <v>52</v>
       </c>
+      <c r="I209">
+        <v>1.27</v>
+      </c>
       <c r="J209" t="s">
         <v>18</v>
       </c>
@@ -10503,6 +11127,9 @@
       <c r="H210">
         <v>66</v>
       </c>
+      <c r="I210">
+        <v>1.4</v>
+      </c>
       <c r="J210" t="s">
         <v>19</v>
       </c>
@@ -10538,6 +11165,9 @@
       <c r="H211">
         <v>77</v>
       </c>
+      <c r="I211">
+        <v>1.04</v>
+      </c>
       <c r="J211" t="s">
         <v>20</v>
       </c>
@@ -10573,6 +11203,9 @@
       <c r="H212">
         <v>53</v>
       </c>
+      <c r="I212">
+        <v>1.89</v>
+      </c>
       <c r="J212" t="s">
         <v>18</v>
       </c>
@@ -10608,6 +11241,9 @@
       <c r="H213">
         <v>58</v>
       </c>
+      <c r="I213">
+        <v>1.88</v>
+      </c>
       <c r="J213" t="s">
         <v>19</v>
       </c>
@@ -10643,6 +11279,9 @@
       <c r="H214">
         <v>50</v>
       </c>
+      <c r="I214">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J214" t="s">
         <v>20</v>
       </c>
@@ -10678,6 +11317,9 @@
       <c r="H215">
         <v>96</v>
       </c>
+      <c r="I215">
+        <v>1.59</v>
+      </c>
       <c r="J215" t="s">
         <v>18</v>
       </c>
@@ -10713,6 +11355,9 @@
       <c r="H216">
         <v>69</v>
       </c>
+      <c r="I216">
+        <v>1.18</v>
+      </c>
       <c r="J216" t="s">
         <v>19</v>
       </c>
@@ -10748,6 +11393,9 @@
       <c r="H217">
         <v>90</v>
       </c>
+      <c r="I217">
+        <v>1.46</v>
+      </c>
       <c r="J217" t="s">
         <v>20</v>
       </c>
@@ -10783,6 +11431,9 @@
       <c r="H218">
         <v>92</v>
       </c>
+      <c r="I218">
+        <v>1.35</v>
+      </c>
       <c r="J218" t="s">
         <v>18</v>
       </c>
@@ -10818,6 +11469,9 @@
       <c r="H219">
         <v>95</v>
       </c>
+      <c r="I219">
+        <v>1.87</v>
+      </c>
       <c r="J219" t="s">
         <v>19</v>
       </c>
@@ -10853,6 +11507,9 @@
       <c r="H220">
         <v>60</v>
       </c>
+      <c r="I220">
+        <v>1.73</v>
+      </c>
       <c r="J220" t="s">
         <v>20</v>
       </c>
@@ -10888,6 +11545,9 @@
       <c r="H221">
         <v>57</v>
       </c>
+      <c r="I221">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="J221" t="s">
         <v>18</v>
       </c>
@@ -10923,6 +11583,9 @@
       <c r="H222">
         <v>84</v>
       </c>
+      <c r="I222">
+        <v>1.73</v>
+      </c>
       <c r="J222" t="s">
         <v>19</v>
       </c>
@@ -10958,6 +11621,9 @@
       <c r="H223">
         <v>95</v>
       </c>
+      <c r="I223">
+        <v>1.25</v>
+      </c>
       <c r="J223" t="s">
         <v>20</v>
       </c>
@@ -10993,6 +11659,9 @@
       <c r="H224">
         <v>84</v>
       </c>
+      <c r="I224">
+        <v>1.96</v>
+      </c>
       <c r="J224" t="s">
         <v>18</v>
       </c>
@@ -11028,6 +11697,9 @@
       <c r="H225">
         <v>78</v>
       </c>
+      <c r="I225">
+        <v>1.2</v>
+      </c>
       <c r="J225" t="s">
         <v>19</v>
       </c>
@@ -11063,6 +11735,9 @@
       <c r="H226">
         <v>95</v>
       </c>
+      <c r="I226">
+        <v>1.84</v>
+      </c>
       <c r="J226" t="s">
         <v>20</v>
       </c>
@@ -11098,6 +11773,9 @@
       <c r="H227">
         <v>52</v>
       </c>
+      <c r="I227">
+        <v>1.85</v>
+      </c>
       <c r="J227" t="s">
         <v>18</v>
       </c>
@@ -11133,6 +11811,9 @@
       <c r="H228">
         <v>54</v>
       </c>
+      <c r="I228">
+        <v>1.05</v>
+      </c>
       <c r="J228" t="s">
         <v>19</v>
       </c>
@@ -11168,6 +11849,9 @@
       <c r="H229">
         <v>65</v>
       </c>
+      <c r="I229">
+        <v>1.78</v>
+      </c>
       <c r="J229" t="s">
         <v>20</v>
       </c>
@@ -11203,6 +11887,9 @@
       <c r="H230">
         <v>99</v>
       </c>
+      <c r="I230">
+        <v>1.72</v>
+      </c>
       <c r="J230" t="s">
         <v>18</v>
       </c>
@@ -11238,6 +11925,9 @@
       <c r="H231">
         <v>88</v>
       </c>
+      <c r="I231">
+        <v>1.68</v>
+      </c>
       <c r="J231" t="s">
         <v>19</v>
       </c>
@@ -11273,6 +11963,9 @@
       <c r="H232">
         <v>75</v>
       </c>
+      <c r="I232">
+        <v>1.76</v>
+      </c>
       <c r="J232" t="s">
         <v>20</v>
       </c>
@@ -11308,6 +12001,9 @@
       <c r="H233">
         <v>51</v>
       </c>
+      <c r="I233">
+        <v>1.29</v>
+      </c>
       <c r="J233" t="s">
         <v>18</v>
       </c>
@@ -11343,6 +12039,9 @@
       <c r="H234">
         <v>84</v>
       </c>
+      <c r="I234">
+        <v>1.27</v>
+      </c>
       <c r="J234" t="s">
         <v>19</v>
       </c>
@@ -11378,6 +12077,9 @@
       <c r="H235">
         <v>86</v>
       </c>
+      <c r="I235">
+        <v>1.91</v>
+      </c>
       <c r="J235" t="s">
         <v>20</v>
       </c>
@@ -11413,6 +12115,9 @@
       <c r="H236">
         <v>51</v>
       </c>
+      <c r="I236">
+        <v>1.81</v>
+      </c>
       <c r="J236" t="s">
         <v>18</v>
       </c>
@@ -11448,6 +12153,9 @@
       <c r="H237">
         <v>88</v>
       </c>
+      <c r="I237">
+        <v>1.88</v>
+      </c>
       <c r="J237" t="s">
         <v>19</v>
       </c>
@@ -11483,6 +12191,9 @@
       <c r="H238">
         <v>68</v>
       </c>
+      <c r="I238">
+        <v>1.23</v>
+      </c>
       <c r="J238" t="s">
         <v>20</v>
       </c>
@@ -11518,6 +12229,9 @@
       <c r="H239">
         <v>63</v>
       </c>
+      <c r="I239">
+        <v>1.29</v>
+      </c>
       <c r="J239" t="s">
         <v>18</v>
       </c>
@@ -11553,6 +12267,9 @@
       <c r="H240">
         <v>79</v>
       </c>
+      <c r="I240">
+        <v>1.53</v>
+      </c>
       <c r="J240" t="s">
         <v>19</v>
       </c>
@@ -11588,6 +12305,9 @@
       <c r="H241">
         <v>93</v>
       </c>
+      <c r="I241">
+        <v>1.01</v>
+      </c>
       <c r="J241" t="s">
         <v>20</v>
       </c>
@@ -11623,6 +12343,9 @@
       <c r="H242">
         <v>69</v>
       </c>
+      <c r="I242">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J242" t="s">
         <v>18</v>
       </c>
@@ -11658,6 +12381,9 @@
       <c r="H243">
         <v>63</v>
       </c>
+      <c r="I243">
+        <v>1.18</v>
+      </c>
       <c r="J243" t="s">
         <v>19</v>
       </c>
@@ -11693,6 +12419,9 @@
       <c r="H244">
         <v>89</v>
       </c>
+      <c r="I244">
+        <v>1.17</v>
+      </c>
       <c r="J244" t="s">
         <v>20</v>
       </c>
@@ -11728,6 +12457,9 @@
       <c r="H245">
         <v>75</v>
       </c>
+      <c r="I245">
+        <v>1.84</v>
+      </c>
       <c r="J245" t="s">
         <v>18</v>
       </c>
@@ -11763,6 +12495,9 @@
       <c r="H246">
         <v>71</v>
       </c>
+      <c r="I246">
+        <v>1.29</v>
+      </c>
       <c r="J246" t="s">
         <v>19</v>
       </c>
@@ -11798,6 +12533,9 @@
       <c r="H247">
         <v>81</v>
       </c>
+      <c r="I247">
+        <v>1.47</v>
+      </c>
       <c r="J247" t="s">
         <v>20</v>
       </c>
@@ -11833,6 +12571,9 @@
       <c r="H248">
         <v>62</v>
       </c>
+      <c r="I248">
+        <v>1.59</v>
+      </c>
       <c r="J248" t="s">
         <v>18</v>
       </c>
@@ -11868,6 +12609,9 @@
       <c r="H249">
         <v>85</v>
       </c>
+      <c r="I249">
+        <v>1.2</v>
+      </c>
       <c r="J249" t="s">
         <v>19</v>
       </c>
@@ -11903,6 +12647,9 @@
       <c r="H250">
         <v>91</v>
       </c>
+      <c r="I250">
+        <v>1.86</v>
+      </c>
       <c r="J250" t="s">
         <v>20</v>
       </c>
@@ -11938,6 +12685,9 @@
       <c r="H251">
         <v>65</v>
       </c>
+      <c r="I251">
+        <v>1.98</v>
+      </c>
       <c r="J251" t="s">
         <v>18</v>
       </c>
@@ -11973,6 +12723,9 @@
       <c r="H252">
         <v>69</v>
       </c>
+      <c r="I252">
+        <v>1.33</v>
+      </c>
       <c r="J252" t="s">
         <v>19</v>
       </c>
@@ -12008,6 +12761,9 @@
       <c r="H253">
         <v>73</v>
       </c>
+      <c r="I253">
+        <v>1.86</v>
+      </c>
       <c r="J253" t="s">
         <v>20</v>
       </c>
@@ -12043,6 +12799,9 @@
       <c r="H254">
         <v>55</v>
       </c>
+      <c r="I254">
+        <v>1.75</v>
+      </c>
       <c r="J254" t="s">
         <v>18</v>
       </c>
@@ -12078,6 +12837,9 @@
       <c r="H255">
         <v>99</v>
       </c>
+      <c r="I255">
+        <v>1.8</v>
+      </c>
       <c r="J255" t="s">
         <v>19</v>
       </c>
@@ -12113,6 +12875,9 @@
       <c r="H256">
         <v>75</v>
       </c>
+      <c r="I256">
+        <v>1.72</v>
+      </c>
       <c r="J256" t="s">
         <v>20</v>
       </c>
@@ -12148,6 +12913,9 @@
       <c r="H257">
         <v>60</v>
       </c>
+      <c r="I257">
+        <v>1.34</v>
+      </c>
       <c r="J257" t="s">
         <v>18</v>
       </c>
@@ -12183,6 +12951,9 @@
       <c r="H258">
         <v>68</v>
       </c>
+      <c r="I258">
+        <v>1.75</v>
+      </c>
       <c r="J258" t="s">
         <v>19</v>
       </c>
@@ -12218,6 +12989,9 @@
       <c r="H259">
         <v>54</v>
       </c>
+      <c r="I259">
+        <v>1.98</v>
+      </c>
       <c r="J259" t="s">
         <v>20</v>
       </c>
@@ -12253,6 +13027,9 @@
       <c r="H260">
         <v>52</v>
       </c>
+      <c r="I260">
+        <v>1.01</v>
+      </c>
       <c r="J260" t="s">
         <v>18</v>
       </c>
@@ -12288,6 +13065,9 @@
       <c r="H261">
         <v>89</v>
       </c>
+      <c r="I261">
+        <v>1.65</v>
+      </c>
       <c r="J261" t="s">
         <v>19</v>
       </c>
@@ -12323,6 +13103,9 @@
       <c r="H262">
         <v>64</v>
       </c>
+      <c r="I262">
+        <v>1.43</v>
+      </c>
       <c r="J262" t="s">
         <v>20</v>
       </c>
@@ -12358,6 +13141,9 @@
       <c r="H263">
         <v>74</v>
       </c>
+      <c r="I263">
+        <v>1.36</v>
+      </c>
       <c r="J263" t="s">
         <v>18</v>
       </c>
@@ -12393,6 +13179,9 @@
       <c r="H264">
         <v>96</v>
       </c>
+      <c r="I264">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="J264" t="s">
         <v>19</v>
       </c>
@@ -12428,6 +13217,9 @@
       <c r="H265">
         <v>69</v>
       </c>
+      <c r="I265">
+        <v>1.66</v>
+      </c>
       <c r="J265" t="s">
         <v>20</v>
       </c>
@@ -12463,6 +13255,9 @@
       <c r="H266">
         <v>87</v>
       </c>
+      <c r="I266">
+        <v>1.72</v>
+      </c>
       <c r="J266" t="s">
         <v>18</v>
       </c>
@@ -12498,6 +13293,9 @@
       <c r="H267">
         <v>58</v>
       </c>
+      <c r="I267">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="J267" t="s">
         <v>19</v>
       </c>
@@ -12533,6 +13331,9 @@
       <c r="H268">
         <v>93</v>
       </c>
+      <c r="I268">
+        <v>1.37</v>
+      </c>
       <c r="J268" t="s">
         <v>20</v>
       </c>
@@ -12568,6 +13369,9 @@
       <c r="H269">
         <v>90</v>
       </c>
+      <c r="I269">
+        <v>1.66</v>
+      </c>
       <c r="J269" t="s">
         <v>18</v>
       </c>
@@ -12603,6 +13407,9 @@
       <c r="H270">
         <v>88</v>
       </c>
+      <c r="I270">
+        <v>1.61</v>
+      </c>
       <c r="J270" t="s">
         <v>19</v>
       </c>
@@ -12638,6 +13445,9 @@
       <c r="H271">
         <v>74</v>
       </c>
+      <c r="I271">
+        <v>1.41</v>
+      </c>
       <c r="J271" t="s">
         <v>20</v>
       </c>
@@ -12673,6 +13483,9 @@
       <c r="H272">
         <v>56</v>
       </c>
+      <c r="I272">
+        <v>1.75</v>
+      </c>
       <c r="J272" t="s">
         <v>18</v>
       </c>
@@ -12708,6 +13521,9 @@
       <c r="H273">
         <v>58</v>
       </c>
+      <c r="I273">
+        <v>1.45</v>
+      </c>
       <c r="J273" t="s">
         <v>19</v>
       </c>
@@ -12743,6 +13559,9 @@
       <c r="H274">
         <v>52</v>
       </c>
+      <c r="I274">
+        <v>1.34</v>
+      </c>
       <c r="J274" t="s">
         <v>20</v>
       </c>
@@ -12778,6 +13597,9 @@
       <c r="H275">
         <v>66</v>
       </c>
+      <c r="I275">
+        <v>1.68</v>
+      </c>
       <c r="J275" t="s">
         <v>18</v>
       </c>
@@ -12813,6 +13635,9 @@
       <c r="H276">
         <v>89</v>
       </c>
+      <c r="I276">
+        <v>1.47</v>
+      </c>
       <c r="J276" t="s">
         <v>19</v>
       </c>
@@ -12848,6 +13673,9 @@
       <c r="H277">
         <v>59</v>
       </c>
+      <c r="I277">
+        <v>1.71</v>
+      </c>
       <c r="J277" t="s">
         <v>20</v>
       </c>
@@ -12883,6 +13711,9 @@
       <c r="H278">
         <v>69</v>
       </c>
+      <c r="I278">
+        <v>1.24</v>
+      </c>
       <c r="J278" t="s">
         <v>18</v>
       </c>
@@ -12918,6 +13749,9 @@
       <c r="H279">
         <v>61</v>
       </c>
+      <c r="I279">
+        <v>1.47</v>
+      </c>
       <c r="J279" t="s">
         <v>19</v>
       </c>
@@ -12953,6 +13787,9 @@
       <c r="H280">
         <v>96</v>
       </c>
+      <c r="I280">
+        <v>1.41</v>
+      </c>
       <c r="J280" t="s">
         <v>20</v>
       </c>
@@ -12988,6 +13825,9 @@
       <c r="H281">
         <v>84</v>
       </c>
+      <c r="I281">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="J281" t="s">
         <v>18</v>
       </c>
@@ -13023,6 +13863,9 @@
       <c r="H282">
         <v>67</v>
       </c>
+      <c r="I282">
+        <v>1.94</v>
+      </c>
       <c r="J282" t="s">
         <v>19</v>
       </c>
@@ -13058,6 +13901,9 @@
       <c r="H283">
         <v>58</v>
       </c>
+      <c r="I283">
+        <v>1.01</v>
+      </c>
       <c r="J283" t="s">
         <v>20</v>
       </c>
@@ -13093,6 +13939,9 @@
       <c r="H284">
         <v>93</v>
       </c>
+      <c r="I284">
+        <v>1.28</v>
+      </c>
       <c r="J284" t="s">
         <v>18</v>
       </c>
@@ -13128,6 +13977,9 @@
       <c r="H285">
         <v>82</v>
       </c>
+      <c r="I285">
+        <v>1.77</v>
+      </c>
       <c r="J285" t="s">
         <v>19</v>
       </c>
@@ -13163,6 +14015,9 @@
       <c r="H286">
         <v>95</v>
       </c>
+      <c r="I286">
+        <v>1.38</v>
+      </c>
       <c r="J286" t="s">
         <v>20</v>
       </c>
@@ -13198,6 +14053,9 @@
       <c r="H287">
         <v>60</v>
       </c>
+      <c r="I287">
+        <v>1.88</v>
+      </c>
       <c r="J287" t="s">
         <v>18</v>
       </c>
@@ -13233,6 +14091,9 @@
       <c r="H288">
         <v>62</v>
       </c>
+      <c r="I288">
+        <v>1.37</v>
+      </c>
       <c r="J288" t="s">
         <v>19</v>
       </c>
@@ -13268,6 +14129,9 @@
       <c r="H289">
         <v>83</v>
       </c>
+      <c r="I289">
+        <v>1.41</v>
+      </c>
       <c r="J289" t="s">
         <v>20</v>
       </c>
@@ -13303,6 +14167,9 @@
       <c r="H290">
         <v>95</v>
       </c>
+      <c r="I290">
+        <v>1.32</v>
+      </c>
       <c r="J290" t="s">
         <v>18</v>
       </c>
@@ -13338,6 +14205,9 @@
       <c r="H291">
         <v>63</v>
       </c>
+      <c r="I291">
+        <v>1.87</v>
+      </c>
       <c r="J291" t="s">
         <v>19</v>
       </c>
@@ -13373,6 +14243,9 @@
       <c r="H292">
         <v>82</v>
       </c>
+      <c r="I292">
+        <v>1.44</v>
+      </c>
       <c r="J292" t="s">
         <v>20</v>
       </c>
@@ -13408,6 +14281,9 @@
       <c r="H293">
         <v>92</v>
       </c>
+      <c r="I293">
+        <v>1.34</v>
+      </c>
       <c r="J293" t="s">
         <v>18</v>
       </c>
@@ -13443,6 +14319,9 @@
       <c r="H294">
         <v>83</v>
       </c>
+      <c r="I294">
+        <v>1.56</v>
+      </c>
       <c r="J294" t="s">
         <v>19</v>
       </c>
@@ -13478,6 +14357,9 @@
       <c r="H295">
         <v>73</v>
       </c>
+      <c r="I295">
+        <v>1.84</v>
+      </c>
       <c r="J295" t="s">
         <v>20</v>
       </c>
@@ -13513,6 +14395,9 @@
       <c r="H296">
         <v>87</v>
       </c>
+      <c r="I296">
+        <v>1.51</v>
+      </c>
       <c r="J296" t="s">
         <v>18</v>
       </c>
@@ -13548,6 +14433,9 @@
       <c r="H297">
         <v>83</v>
       </c>
+      <c r="I297">
+        <v>1.39</v>
+      </c>
       <c r="J297" t="s">
         <v>19</v>
       </c>
@@ -13583,6 +14471,9 @@
       <c r="H298">
         <v>82</v>
       </c>
+      <c r="I298">
+        <v>1.99</v>
+      </c>
       <c r="J298" t="s">
         <v>20</v>
       </c>
@@ -13618,6 +14509,9 @@
       <c r="H299">
         <v>83</v>
       </c>
+      <c r="I299">
+        <v>1.54</v>
+      </c>
       <c r="J299" t="s">
         <v>18</v>
       </c>
@@ -13653,6 +14547,9 @@
       <c r="H300">
         <v>70</v>
       </c>
+      <c r="I300">
+        <v>1.32</v>
+      </c>
       <c r="J300" t="s">
         <v>19</v>
       </c>
@@ -13688,6 +14585,9 @@
       <c r="H301">
         <v>89</v>
       </c>
+      <c r="I301">
+        <v>1.5</v>
+      </c>
       <c r="J301" t="s">
         <v>20</v>
       </c>
@@ -13723,6 +14623,9 @@
       <c r="H302">
         <v>61</v>
       </c>
+      <c r="I302">
+        <v>1.25</v>
+      </c>
       <c r="J302" t="s">
         <v>18</v>
       </c>
@@ -13758,6 +14661,9 @@
       <c r="H303">
         <v>82</v>
       </c>
+      <c r="I303">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J303" t="s">
         <v>19</v>
       </c>
@@ -13793,6 +14699,9 @@
       <c r="H304">
         <v>72</v>
       </c>
+      <c r="I304">
+        <v>1.34</v>
+      </c>
       <c r="J304" t="s">
         <v>20</v>
       </c>
@@ -13828,6 +14737,9 @@
       <c r="H305">
         <v>93</v>
       </c>
+      <c r="I305">
+        <v>1.69</v>
+      </c>
       <c r="J305" t="s">
         <v>18</v>
       </c>
@@ -13863,6 +14775,9 @@
       <c r="H306">
         <v>95</v>
       </c>
+      <c r="I306">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="J306" t="s">
         <v>19</v>
       </c>
@@ -13898,6 +14813,9 @@
       <c r="H307">
         <v>51</v>
       </c>
+      <c r="I307">
+        <v>1.71</v>
+      </c>
       <c r="J307" t="s">
         <v>20</v>
       </c>
@@ -13933,6 +14851,9 @@
       <c r="H308">
         <v>55</v>
       </c>
+      <c r="I308">
+        <v>2</v>
+      </c>
       <c r="J308" t="s">
         <v>18</v>
       </c>
@@ -13968,6 +14889,9 @@
       <c r="H309">
         <v>84</v>
       </c>
+      <c r="I309">
+        <v>1.98</v>
+      </c>
       <c r="J309" t="s">
         <v>19</v>
       </c>
@@ -14003,6 +14927,9 @@
       <c r="H310">
         <v>61</v>
       </c>
+      <c r="I310">
+        <v>1.96</v>
+      </c>
       <c r="J310" t="s">
         <v>20</v>
       </c>
@@ -14038,6 +14965,9 @@
       <c r="H311">
         <v>64</v>
       </c>
+      <c r="I311">
+        <v>1.97</v>
+      </c>
       <c r="J311" t="s">
         <v>18</v>
       </c>
@@ -14073,6 +15003,9 @@
       <c r="H312">
         <v>82</v>
       </c>
+      <c r="I312">
+        <v>1.6</v>
+      </c>
       <c r="J312" t="s">
         <v>19</v>
       </c>
@@ -14108,6 +15041,9 @@
       <c r="H313">
         <v>65</v>
       </c>
+      <c r="I313">
+        <v>1.51</v>
+      </c>
       <c r="J313" t="s">
         <v>20</v>
       </c>
@@ -14143,6 +15079,9 @@
       <c r="H314">
         <v>99</v>
       </c>
+      <c r="I314">
+        <v>1.85</v>
+      </c>
       <c r="J314" t="s">
         <v>18</v>
       </c>
@@ -14178,6 +15117,9 @@
       <c r="H315">
         <v>81</v>
       </c>
+      <c r="I315">
+        <v>1.73</v>
+      </c>
       <c r="J315" t="s">
         <v>19</v>
       </c>
@@ -14213,6 +15155,9 @@
       <c r="H316">
         <v>96</v>
       </c>
+      <c r="I316">
+        <v>1.82</v>
+      </c>
       <c r="J316" t="s">
         <v>20</v>
       </c>
@@ -14248,6 +15193,9 @@
       <c r="H317">
         <v>72</v>
       </c>
+      <c r="I317">
+        <v>1.89</v>
+      </c>
       <c r="J317" t="s">
         <v>18</v>
       </c>
@@ -14283,6 +15231,9 @@
       <c r="H318">
         <v>53</v>
       </c>
+      <c r="I318">
+        <v>1.06</v>
+      </c>
       <c r="J318" t="s">
         <v>19</v>
       </c>
@@ -14318,6 +15269,9 @@
       <c r="H319">
         <v>84</v>
       </c>
+      <c r="I319">
+        <v>1.63</v>
+      </c>
       <c r="J319" t="s">
         <v>20</v>
       </c>
@@ -14353,6 +15307,9 @@
       <c r="H320">
         <v>54</v>
       </c>
+      <c r="I320">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J320" t="s">
         <v>18</v>
       </c>
@@ -14388,6 +15345,9 @@
       <c r="H321">
         <v>67</v>
       </c>
+      <c r="I321">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="J321" t="s">
         <v>19</v>
       </c>
@@ -14423,6 +15383,9 @@
       <c r="H322">
         <v>56</v>
       </c>
+      <c r="I322">
+        <v>1.52</v>
+      </c>
       <c r="J322" t="s">
         <v>20</v>
       </c>
@@ -14458,6 +15421,9 @@
       <c r="H323">
         <v>55</v>
       </c>
+      <c r="I323">
+        <v>1.95</v>
+      </c>
       <c r="J323" t="s">
         <v>18</v>
       </c>
@@ -14493,6 +15459,9 @@
       <c r="H324">
         <v>89</v>
       </c>
+      <c r="I324">
+        <v>1.95</v>
+      </c>
       <c r="J324" t="s">
         <v>19</v>
       </c>
@@ -14528,6 +15497,9 @@
       <c r="H325">
         <v>61</v>
       </c>
+      <c r="I325">
+        <v>1.23</v>
+      </c>
       <c r="J325" t="s">
         <v>20</v>
       </c>
@@ -14563,6 +15535,9 @@
       <c r="H326">
         <v>59</v>
       </c>
+      <c r="I326">
+        <v>1.92</v>
+      </c>
       <c r="J326" t="s">
         <v>18</v>
       </c>
@@ -14598,6 +15573,9 @@
       <c r="H327">
         <v>88</v>
       </c>
+      <c r="I327">
+        <v>1.41</v>
+      </c>
       <c r="J327" t="s">
         <v>19</v>
       </c>
@@ -14633,6 +15611,9 @@
       <c r="H328">
         <v>94</v>
       </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
       <c r="J328" t="s">
         <v>20</v>
       </c>
@@ -14668,6 +15649,9 @@
       <c r="H329">
         <v>85</v>
       </c>
+      <c r="I329">
+        <v>1.9</v>
+      </c>
       <c r="J329" t="s">
         <v>18</v>
       </c>
@@ -14703,6 +15687,9 @@
       <c r="H330">
         <v>80</v>
       </c>
+      <c r="I330">
+        <v>1.88</v>
+      </c>
       <c r="J330" t="s">
         <v>19</v>
       </c>
@@ -14738,6 +15725,9 @@
       <c r="H331">
         <v>99</v>
       </c>
+      <c r="I331">
+        <v>1.3</v>
+      </c>
       <c r="J331" t="s">
         <v>20</v>
       </c>
@@ -14773,6 +15763,9 @@
       <c r="H332">
         <v>61</v>
       </c>
+      <c r="I332">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J332" t="s">
         <v>18</v>
       </c>
@@ -14808,6 +15801,9 @@
       <c r="H333">
         <v>91</v>
       </c>
+      <c r="I333">
+        <v>1.08</v>
+      </c>
       <c r="J333" t="s">
         <v>19</v>
       </c>
@@ -14843,6 +15839,9 @@
       <c r="H334">
         <v>100</v>
       </c>
+      <c r="I334">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J334" t="s">
         <v>20</v>
       </c>
@@ -14878,6 +15877,9 @@
       <c r="H335">
         <v>64</v>
       </c>
+      <c r="I335">
+        <v>1.75</v>
+      </c>
       <c r="J335" t="s">
         <v>18</v>
       </c>
@@ -14913,6 +15915,9 @@
       <c r="H336">
         <v>52</v>
       </c>
+      <c r="I336">
+        <v>1.69</v>
+      </c>
       <c r="J336" t="s">
         <v>19</v>
       </c>
@@ -14948,6 +15953,9 @@
       <c r="H337">
         <v>64</v>
       </c>
+      <c r="I337">
+        <v>1.76</v>
+      </c>
       <c r="J337" t="s">
         <v>20</v>
       </c>
@@ -14983,6 +15991,9 @@
       <c r="H338">
         <v>86</v>
       </c>
+      <c r="I338">
+        <v>1.8</v>
+      </c>
       <c r="J338" t="s">
         <v>18</v>
       </c>
@@ -15018,6 +16029,9 @@
       <c r="H339">
         <v>67</v>
       </c>
+      <c r="I339">
+        <v>1.43</v>
+      </c>
       <c r="J339" t="s">
         <v>19</v>
       </c>
@@ -15053,6 +16067,9 @@
       <c r="H340">
         <v>73</v>
       </c>
+      <c r="I340">
+        <v>1.38</v>
+      </c>
       <c r="J340" t="s">
         <v>20</v>
       </c>
@@ -15088,6 +16105,9 @@
       <c r="H341">
         <v>100</v>
       </c>
+      <c r="I341">
+        <v>1.95</v>
+      </c>
       <c r="J341" t="s">
         <v>18</v>
       </c>
@@ -15123,6 +16143,9 @@
       <c r="H342">
         <v>54</v>
       </c>
+      <c r="I342">
+        <v>1.17</v>
+      </c>
       <c r="J342" t="s">
         <v>19</v>
       </c>
@@ -15158,6 +16181,9 @@
       <c r="H343">
         <v>92</v>
       </c>
+      <c r="I343">
+        <v>1.39</v>
+      </c>
       <c r="J343" t="s">
         <v>20</v>
       </c>
@@ -15193,6 +16219,9 @@
       <c r="H344">
         <v>83</v>
       </c>
+      <c r="I344">
+        <v>1.79</v>
+      </c>
       <c r="J344" t="s">
         <v>18</v>
       </c>
@@ -15228,6 +16257,9 @@
       <c r="H345">
         <v>87</v>
       </c>
+      <c r="I345">
+        <v>1.56</v>
+      </c>
       <c r="J345" t="s">
         <v>19</v>
       </c>
@@ -15263,6 +16295,9 @@
       <c r="H346">
         <v>90</v>
       </c>
+      <c r="I346">
+        <v>1.56</v>
+      </c>
       <c r="J346" t="s">
         <v>20</v>
       </c>
@@ -15298,6 +16333,9 @@
       <c r="H347">
         <v>85</v>
       </c>
+      <c r="I347">
+        <v>1.66</v>
+      </c>
       <c r="J347" t="s">
         <v>18</v>
       </c>
@@ -15333,6 +16371,9 @@
       <c r="H348">
         <v>81</v>
       </c>
+      <c r="I348">
+        <v>1.67</v>
+      </c>
       <c r="J348" t="s">
         <v>19</v>
       </c>
@@ -15368,6 +16409,9 @@
       <c r="H349">
         <v>73</v>
       </c>
+      <c r="I349">
+        <v>1.6</v>
+      </c>
       <c r="J349" t="s">
         <v>20</v>
       </c>
@@ -15403,6 +16447,9 @@
       <c r="H350">
         <v>79</v>
       </c>
+      <c r="I350">
+        <v>1.25</v>
+      </c>
       <c r="J350" t="s">
         <v>18</v>
       </c>
@@ -15438,6 +16485,9 @@
       <c r="H351">
         <v>67</v>
       </c>
+      <c r="I351">
+        <v>1.63</v>
+      </c>
       <c r="J351" t="s">
         <v>19</v>
       </c>
@@ -15473,6 +16523,9 @@
       <c r="H352">
         <v>100</v>
       </c>
+      <c r="I352">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="J352" t="s">
         <v>20</v>
       </c>
@@ -15508,6 +16561,9 @@
       <c r="H353">
         <v>85</v>
       </c>
+      <c r="I353">
+        <v>1.25</v>
+      </c>
       <c r="J353" t="s">
         <v>18</v>
       </c>
@@ -15543,6 +16599,9 @@
       <c r="H354">
         <v>85</v>
       </c>
+      <c r="I354">
+        <v>1.06</v>
+      </c>
       <c r="J354" t="s">
         <v>19</v>
       </c>
@@ -15578,6 +16637,9 @@
       <c r="H355">
         <v>94</v>
       </c>
+      <c r="I355">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J355" t="s">
         <v>20</v>
       </c>
@@ -15613,6 +16675,9 @@
       <c r="H356">
         <v>86</v>
       </c>
+      <c r="I356">
+        <v>1.28</v>
+      </c>
       <c r="J356" t="s">
         <v>18</v>
       </c>
@@ -15648,6 +16713,9 @@
       <c r="H357">
         <v>68</v>
       </c>
+      <c r="I357">
+        <v>1.77</v>
+      </c>
       <c r="J357" t="s">
         <v>19</v>
       </c>
@@ -15683,6 +16751,9 @@
       <c r="H358">
         <v>80</v>
       </c>
+      <c r="I358">
+        <v>1.31</v>
+      </c>
       <c r="J358" t="s">
         <v>20</v>
       </c>
@@ -15718,6 +16789,9 @@
       <c r="H359">
         <v>93</v>
       </c>
+      <c r="I359">
+        <v>1.88</v>
+      </c>
       <c r="J359" t="s">
         <v>18</v>
       </c>
@@ -15753,6 +16827,9 @@
       <c r="H360">
         <v>88</v>
       </c>
+      <c r="I360">
+        <v>1.17</v>
+      </c>
       <c r="J360" t="s">
         <v>19</v>
       </c>
@@ -15788,6 +16865,9 @@
       <c r="H361">
         <v>52</v>
       </c>
+      <c r="I361">
+        <v>1.74</v>
+      </c>
       <c r="J361" t="s">
         <v>20</v>
       </c>
@@ -15823,6 +16903,9 @@
       <c r="H362">
         <v>89</v>
       </c>
+      <c r="I362">
+        <v>1.9</v>
+      </c>
       <c r="J362" t="s">
         <v>18</v>
       </c>
@@ -15858,6 +16941,9 @@
       <c r="H363">
         <v>73</v>
       </c>
+      <c r="I363">
+        <v>1.51</v>
+      </c>
       <c r="J363" t="s">
         <v>19</v>
       </c>
@@ -15893,6 +16979,9 @@
       <c r="H364">
         <v>68</v>
       </c>
+      <c r="I364">
+        <v>1.73</v>
+      </c>
       <c r="J364" t="s">
         <v>20</v>
       </c>
@@ -15928,6 +17017,9 @@
       <c r="H365">
         <v>63</v>
       </c>
+      <c r="I365">
+        <v>1.34</v>
+      </c>
       <c r="J365" t="s">
         <v>18</v>
       </c>
@@ -15963,6 +17055,9 @@
       <c r="H366">
         <v>81</v>
       </c>
+      <c r="I366">
+        <v>1.78</v>
+      </c>
       <c r="J366" t="s">
         <v>19</v>
       </c>
@@ -15998,6 +17093,9 @@
       <c r="H367">
         <v>93</v>
       </c>
+      <c r="I367">
+        <v>1.62</v>
+      </c>
       <c r="J367" t="s">
         <v>20</v>
       </c>
@@ -16033,6 +17131,9 @@
       <c r="H368">
         <v>93</v>
       </c>
+      <c r="I368">
+        <v>1.94</v>
+      </c>
       <c r="J368" t="s">
         <v>18</v>
       </c>
@@ -16068,6 +17169,9 @@
       <c r="H369">
         <v>86</v>
       </c>
+      <c r="I369">
+        <v>1.01</v>
+      </c>
       <c r="J369" t="s">
         <v>19</v>
       </c>
@@ -16103,6 +17207,9 @@
       <c r="H370">
         <v>88</v>
       </c>
+      <c r="I370">
+        <v>1.85</v>
+      </c>
       <c r="J370" t="s">
         <v>20</v>
       </c>
@@ -16138,6 +17245,9 @@
       <c r="H371">
         <v>99</v>
       </c>
+      <c r="I371">
+        <v>1.38</v>
+      </c>
       <c r="J371" t="s">
         <v>18</v>
       </c>
@@ -16173,6 +17283,9 @@
       <c r="H372">
         <v>94</v>
       </c>
+      <c r="I372">
+        <v>1.98</v>
+      </c>
       <c r="J372" t="s">
         <v>19</v>
       </c>
@@ -16208,6 +17321,9 @@
       <c r="H373">
         <v>72</v>
       </c>
+      <c r="I373">
+        <v>1.92</v>
+      </c>
       <c r="J373" t="s">
         <v>20</v>
       </c>
@@ -16243,6 +17359,9 @@
       <c r="H374">
         <v>63</v>
       </c>
+      <c r="I374">
+        <v>1.67</v>
+      </c>
       <c r="J374" t="s">
         <v>18</v>
       </c>
@@ -16278,6 +17397,9 @@
       <c r="H375">
         <v>88</v>
       </c>
+      <c r="I375">
+        <v>1.27</v>
+      </c>
       <c r="J375" t="s">
         <v>19</v>
       </c>
@@ -16313,6 +17435,9 @@
       <c r="H376">
         <v>67</v>
       </c>
+      <c r="I376">
+        <v>1.68</v>
+      </c>
       <c r="J376" t="s">
         <v>20</v>
       </c>
@@ -16348,6 +17473,9 @@
       <c r="H377">
         <v>62</v>
       </c>
+      <c r="I377">
+        <v>1.36</v>
+      </c>
       <c r="J377" t="s">
         <v>18</v>
       </c>
@@ -16383,6 +17511,9 @@
       <c r="H378">
         <v>58</v>
       </c>
+      <c r="I378">
+        <v>1.58</v>
+      </c>
       <c r="J378" t="s">
         <v>19</v>
       </c>
@@ -16418,6 +17549,9 @@
       <c r="H379">
         <v>58</v>
       </c>
+      <c r="I379">
+        <v>1.72</v>
+      </c>
       <c r="J379" t="s">
         <v>20</v>
       </c>
@@ -16453,6 +17587,9 @@
       <c r="H380">
         <v>81</v>
       </c>
+      <c r="I380">
+        <v>1.56</v>
+      </c>
       <c r="J380" t="s">
         <v>18</v>
       </c>
@@ -16488,6 +17625,9 @@
       <c r="H381">
         <v>64</v>
       </c>
+      <c r="I381">
+        <v>1.58</v>
+      </c>
       <c r="J381" t="s">
         <v>19</v>
       </c>
@@ -16523,6 +17663,9 @@
       <c r="H382">
         <v>81</v>
       </c>
+      <c r="I382">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J382" t="s">
         <v>20</v>
       </c>
@@ -16558,6 +17701,9 @@
       <c r="H383">
         <v>63</v>
       </c>
+      <c r="I383">
+        <v>1.63</v>
+      </c>
       <c r="J383" t="s">
         <v>18</v>
       </c>
@@ -16593,6 +17739,9 @@
       <c r="H384">
         <v>54</v>
       </c>
+      <c r="I384">
+        <v>1.66</v>
+      </c>
       <c r="J384" t="s">
         <v>19</v>
       </c>
@@ -16628,6 +17777,9 @@
       <c r="H385">
         <v>55</v>
       </c>
+      <c r="I385">
+        <v>1.23</v>
+      </c>
       <c r="J385" t="s">
         <v>20</v>
       </c>
@@ -16663,6 +17815,9 @@
       <c r="H386">
         <v>95</v>
       </c>
+      <c r="I386">
+        <v>1.57</v>
+      </c>
       <c r="J386" t="s">
         <v>18</v>
       </c>
@@ -16698,6 +17853,9 @@
       <c r="H387">
         <v>76</v>
       </c>
+      <c r="I387">
+        <v>1.53</v>
+      </c>
       <c r="J387" t="s">
         <v>19</v>
       </c>
@@ -16733,6 +17891,9 @@
       <c r="H388">
         <v>97</v>
       </c>
+      <c r="I388">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J388" t="s">
         <v>20</v>
       </c>
@@ -16768,6 +17929,9 @@
       <c r="H389">
         <v>59</v>
       </c>
+      <c r="I389">
+        <v>1.24</v>
+      </c>
       <c r="J389" t="s">
         <v>18</v>
       </c>
@@ -16803,6 +17967,9 @@
       <c r="H390">
         <v>95</v>
       </c>
+      <c r="I390">
+        <v>1.58</v>
+      </c>
       <c r="J390" t="s">
         <v>19</v>
       </c>
@@ -16838,6 +18005,9 @@
       <c r="H391">
         <v>96</v>
       </c>
+      <c r="I391">
+        <v>1.72</v>
+      </c>
       <c r="J391" t="s">
         <v>20</v>
       </c>
@@ -16873,6 +18043,9 @@
       <c r="H392">
         <v>96</v>
       </c>
+      <c r="I392">
+        <v>1.67</v>
+      </c>
       <c r="J392" t="s">
         <v>18</v>
       </c>
@@ -16908,6 +18081,9 @@
       <c r="H393">
         <v>55</v>
       </c>
+      <c r="I393">
+        <v>1.75</v>
+      </c>
       <c r="J393" t="s">
         <v>19</v>
       </c>
@@ -16943,6 +18119,9 @@
       <c r="H394">
         <v>78</v>
       </c>
+      <c r="I394">
+        <v>1.82</v>
+      </c>
       <c r="J394" t="s">
         <v>20</v>
       </c>
@@ -16978,6 +18157,9 @@
       <c r="H395">
         <v>73</v>
       </c>
+      <c r="I395">
+        <v>1.86</v>
+      </c>
       <c r="J395" t="s">
         <v>18</v>
       </c>
@@ -17013,6 +18195,9 @@
       <c r="H396">
         <v>95</v>
       </c>
+      <c r="I396">
+        <v>1.33</v>
+      </c>
       <c r="J396" t="s">
         <v>19</v>
       </c>
@@ -17048,6 +18233,9 @@
       <c r="H397">
         <v>99</v>
       </c>
+      <c r="I397">
+        <v>1.72</v>
+      </c>
       <c r="J397" t="s">
         <v>20</v>
       </c>
@@ -17083,6 +18271,9 @@
       <c r="H398">
         <v>69</v>
       </c>
+      <c r="I398">
+        <v>1.58</v>
+      </c>
       <c r="J398" t="s">
         <v>18</v>
       </c>
@@ -17118,6 +18309,9 @@
       <c r="H399">
         <v>73</v>
       </c>
+      <c r="I399">
+        <v>1.19</v>
+      </c>
       <c r="J399" t="s">
         <v>19</v>
       </c>
@@ -17153,6 +18347,9 @@
       <c r="H400">
         <v>90</v>
       </c>
+      <c r="I400">
+        <v>1.17</v>
+      </c>
       <c r="J400" t="s">
         <v>20</v>
       </c>
@@ -17188,6 +18385,9 @@
       <c r="H401">
         <v>88</v>
       </c>
+      <c r="I401">
+        <v>1.07</v>
+      </c>
       <c r="J401" t="s">
         <v>18</v>
       </c>
@@ -17223,6 +18423,9 @@
       <c r="H402">
         <v>76</v>
       </c>
+      <c r="I402">
+        <v>1.53</v>
+      </c>
       <c r="J402" t="s">
         <v>19</v>
       </c>
@@ -17258,6 +18461,9 @@
       <c r="H403">
         <v>61</v>
       </c>
+      <c r="I403">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J403" t="s">
         <v>20</v>
       </c>
@@ -17293,6 +18499,9 @@
       <c r="H404">
         <v>100</v>
       </c>
+      <c r="I404">
+        <v>1.4</v>
+      </c>
       <c r="J404" t="s">
         <v>18</v>
       </c>
@@ -17328,6 +18537,9 @@
       <c r="H405">
         <v>50</v>
       </c>
+      <c r="I405">
+        <v>1.52</v>
+      </c>
       <c r="J405" t="s">
         <v>19</v>
       </c>
@@ -17363,6 +18575,9 @@
       <c r="H406">
         <v>61</v>
       </c>
+      <c r="I406">
+        <v>1.4</v>
+      </c>
       <c r="J406" t="s">
         <v>20</v>
       </c>
@@ -17398,6 +18613,9 @@
       <c r="H407">
         <v>80</v>
       </c>
+      <c r="I407">
+        <v>1.22</v>
+      </c>
       <c r="J407" t="s">
         <v>18</v>
       </c>
@@ -17433,6 +18651,9 @@
       <c r="H408">
         <v>94</v>
       </c>
+      <c r="I408">
+        <v>1.37</v>
+      </c>
       <c r="J408" t="s">
         <v>19</v>
       </c>
@@ -17468,6 +18689,9 @@
       <c r="H409">
         <v>51</v>
       </c>
+      <c r="I409">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J409" t="s">
         <v>20</v>
       </c>
@@ -17503,6 +18727,9 @@
       <c r="H410">
         <v>89</v>
       </c>
+      <c r="I410">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J410" t="s">
         <v>18</v>
       </c>
@@ -17538,6 +18765,9 @@
       <c r="H411">
         <v>57</v>
       </c>
+      <c r="I411">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="J411" t="s">
         <v>19</v>
       </c>
@@ -17573,6 +18803,9 @@
       <c r="H412">
         <v>96</v>
       </c>
+      <c r="I412">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="J412" t="s">
         <v>20</v>
       </c>
@@ -17608,6 +18841,9 @@
       <c r="H413">
         <v>54</v>
       </c>
+      <c r="I413">
+        <v>1.05</v>
+      </c>
       <c r="J413" t="s">
         <v>18</v>
       </c>
@@ -17643,6 +18879,9 @@
       <c r="H414">
         <v>73</v>
       </c>
+      <c r="I414">
+        <v>1.88</v>
+      </c>
       <c r="J414" t="s">
         <v>19</v>
       </c>
@@ -17678,6 +18917,9 @@
       <c r="H415">
         <v>69</v>
       </c>
+      <c r="I415">
+        <v>1.59</v>
+      </c>
       <c r="J415" t="s">
         <v>20</v>
       </c>
@@ -17713,6 +18955,9 @@
       <c r="H416">
         <v>57</v>
       </c>
+      <c r="I416">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J416" t="s">
         <v>18</v>
       </c>
@@ -17748,6 +18993,9 @@
       <c r="H417">
         <v>80</v>
       </c>
+      <c r="I417">
+        <v>1.28</v>
+      </c>
       <c r="J417" t="s">
         <v>19</v>
       </c>
@@ -17783,6 +19031,9 @@
       <c r="H418">
         <v>67</v>
       </c>
+      <c r="I418">
+        <v>1.47</v>
+      </c>
       <c r="J418" t="s">
         <v>20</v>
       </c>
@@ -17818,6 +19069,9 @@
       <c r="H419">
         <v>68</v>
       </c>
+      <c r="I419">
+        <v>1.07</v>
+      </c>
       <c r="J419" t="s">
         <v>18</v>
       </c>
@@ -17853,6 +19107,9 @@
       <c r="H420">
         <v>81</v>
       </c>
+      <c r="I420">
+        <v>1.95</v>
+      </c>
       <c r="J420" t="s">
         <v>19</v>
       </c>
@@ -17888,6 +19145,9 @@
       <c r="H421">
         <v>72</v>
       </c>
+      <c r="I421">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="J421" t="s">
         <v>20</v>
       </c>
@@ -17923,6 +19183,9 @@
       <c r="H422">
         <v>85</v>
       </c>
+      <c r="I422">
+        <v>1.84</v>
+      </c>
       <c r="J422" t="s">
         <v>18</v>
       </c>
@@ -17958,6 +19221,9 @@
       <c r="H423">
         <v>55</v>
       </c>
+      <c r="I423">
+        <v>1.67</v>
+      </c>
       <c r="J423" t="s">
         <v>19</v>
       </c>
@@ -17993,6 +19259,9 @@
       <c r="H424">
         <v>95</v>
       </c>
+      <c r="I424">
+        <v>1.62</v>
+      </c>
       <c r="J424" t="s">
         <v>20</v>
       </c>
@@ -18028,6 +19297,9 @@
       <c r="H425">
         <v>57</v>
       </c>
+      <c r="I425">
+        <v>1.97</v>
+      </c>
       <c r="J425" t="s">
         <v>18</v>
       </c>
@@ -18063,6 +19335,9 @@
       <c r="H426">
         <v>57</v>
       </c>
+      <c r="I426">
+        <v>1.22</v>
+      </c>
       <c r="J426" t="s">
         <v>19</v>
       </c>
@@ -18098,6 +19373,9 @@
       <c r="H427">
         <v>95</v>
       </c>
+      <c r="I427">
+        <v>1.5</v>
+      </c>
       <c r="J427" t="s">
         <v>20</v>
       </c>
@@ -18133,6 +19411,9 @@
       <c r="H428">
         <v>65</v>
       </c>
+      <c r="I428">
+        <v>1.65</v>
+      </c>
       <c r="J428" t="s">
         <v>18</v>
       </c>
@@ -18168,6 +19449,9 @@
       <c r="H429">
         <v>77</v>
       </c>
+      <c r="I429">
+        <v>1.75</v>
+      </c>
       <c r="J429" t="s">
         <v>19</v>
       </c>
@@ -18203,6 +19487,9 @@
       <c r="H430">
         <v>60</v>
       </c>
+      <c r="I430">
+        <v>1.23</v>
+      </c>
       <c r="J430" t="s">
         <v>20</v>
       </c>
@@ -18238,6 +19525,9 @@
       <c r="H431">
         <v>63</v>
       </c>
+      <c r="I431">
+        <v>1.72</v>
+      </c>
       <c r="J431" t="s">
         <v>18</v>
       </c>
@@ -18273,6 +19563,9 @@
       <c r="H432">
         <v>82</v>
       </c>
+      <c r="I432">
+        <v>2</v>
+      </c>
       <c r="J432" t="s">
         <v>19</v>
       </c>
@@ -18308,6 +19601,9 @@
       <c r="H433">
         <v>64</v>
       </c>
+      <c r="I433">
+        <v>1.22</v>
+      </c>
       <c r="J433" t="s">
         <v>20</v>
       </c>
@@ -18343,6 +19639,9 @@
       <c r="H434">
         <v>85</v>
       </c>
+      <c r="I434">
+        <v>1.41</v>
+      </c>
       <c r="J434" t="s">
         <v>18</v>
       </c>
@@ -18378,6 +19677,9 @@
       <c r="H435">
         <v>79</v>
       </c>
+      <c r="I435">
+        <v>1.84</v>
+      </c>
       <c r="J435" t="s">
         <v>19</v>
       </c>
@@ -18413,6 +19715,9 @@
       <c r="H436">
         <v>51</v>
       </c>
+      <c r="I436">
+        <v>1.38</v>
+      </c>
       <c r="J436" t="s">
         <v>20</v>
       </c>
@@ -18448,6 +19753,9 @@
       <c r="H437">
         <v>59</v>
       </c>
+      <c r="I437">
+        <v>1.43</v>
+      </c>
       <c r="J437" t="s">
         <v>18</v>
       </c>
@@ -18483,6 +19791,9 @@
       <c r="H438">
         <v>71</v>
       </c>
+      <c r="I438">
+        <v>1.9</v>
+      </c>
       <c r="J438" t="s">
         <v>19</v>
       </c>
@@ -18518,6 +19829,9 @@
       <c r="H439">
         <v>76</v>
       </c>
+      <c r="I439">
+        <v>1.53</v>
+      </c>
       <c r="J439" t="s">
         <v>20</v>
       </c>
@@ -18553,6 +19867,9 @@
       <c r="H440">
         <v>96</v>
       </c>
+      <c r="I440">
+        <v>1.73</v>
+      </c>
       <c r="J440" t="s">
         <v>18</v>
       </c>
@@ -18588,6 +19905,9 @@
       <c r="H441">
         <v>85</v>
       </c>
+      <c r="I441">
+        <v>1.84</v>
+      </c>
       <c r="J441" t="s">
         <v>19</v>
       </c>
@@ -18623,6 +19943,9 @@
       <c r="H442">
         <v>94</v>
       </c>
+      <c r="I442">
+        <v>1.08</v>
+      </c>
       <c r="J442" t="s">
         <v>20</v>
       </c>
@@ -18658,6 +19981,9 @@
       <c r="H443">
         <v>64</v>
       </c>
+      <c r="I443">
+        <v>1.48</v>
+      </c>
       <c r="J443" t="s">
         <v>18</v>
       </c>
@@ -18693,6 +20019,9 @@
       <c r="H444">
         <v>56</v>
       </c>
+      <c r="I444">
+        <v>1.78</v>
+      </c>
       <c r="J444" t="s">
         <v>19</v>
       </c>
@@ -18728,6 +20057,9 @@
       <c r="H445">
         <v>81</v>
       </c>
+      <c r="I445">
+        <v>1.79</v>
+      </c>
       <c r="J445" t="s">
         <v>20</v>
       </c>
@@ -18763,6 +20095,9 @@
       <c r="H446">
         <v>85</v>
       </c>
+      <c r="I446">
+        <v>1.38</v>
+      </c>
       <c r="J446" t="s">
         <v>18</v>
       </c>
@@ -18798,6 +20133,9 @@
       <c r="H447">
         <v>56</v>
       </c>
+      <c r="I447">
+        <v>1.96</v>
+      </c>
       <c r="J447" t="s">
         <v>19</v>
       </c>
@@ -18833,6 +20171,9 @@
       <c r="H448">
         <v>66</v>
       </c>
+      <c r="I448">
+        <v>1.42</v>
+      </c>
       <c r="J448" t="s">
         <v>20</v>
       </c>
@@ -18868,6 +20209,9 @@
       <c r="H449">
         <v>73</v>
       </c>
+      <c r="I449">
+        <v>1.03</v>
+      </c>
       <c r="J449" t="s">
         <v>18</v>
       </c>
@@ -18903,6 +20247,9 @@
       <c r="H450">
         <v>89</v>
       </c>
+      <c r="I450">
+        <v>1.72</v>
+      </c>
       <c r="J450" t="s">
         <v>19</v>
       </c>
@@ -18938,6 +20285,9 @@
       <c r="H451">
         <v>69</v>
       </c>
+      <c r="I451">
+        <v>1.42</v>
+      </c>
       <c r="J451" t="s">
         <v>20</v>
       </c>
@@ -18973,6 +20323,9 @@
       <c r="H452">
         <v>90</v>
       </c>
+      <c r="I452">
+        <v>1.58</v>
+      </c>
       <c r="J452" t="s">
         <v>18</v>
       </c>
@@ -19008,6 +20361,9 @@
       <c r="H453">
         <v>62</v>
       </c>
+      <c r="I453">
+        <v>1.37</v>
+      </c>
       <c r="J453" t="s">
         <v>19</v>
       </c>
@@ -19043,6 +20399,9 @@
       <c r="H454">
         <v>64</v>
       </c>
+      <c r="I454">
+        <v>1.86</v>
+      </c>
       <c r="J454" t="s">
         <v>20</v>
       </c>
@@ -19078,6 +20437,9 @@
       <c r="H455">
         <v>55</v>
       </c>
+      <c r="I455">
+        <v>1.88</v>
+      </c>
       <c r="J455" t="s">
         <v>18</v>
       </c>
@@ -19113,6 +20475,9 @@
       <c r="H456">
         <v>89</v>
       </c>
+      <c r="I456">
+        <v>1.67</v>
+      </c>
       <c r="J456" t="s">
         <v>19</v>
       </c>
@@ -19148,6 +20513,9 @@
       <c r="H457">
         <v>69</v>
       </c>
+      <c r="I457">
+        <v>1.61</v>
+      </c>
       <c r="J457" t="s">
         <v>20</v>
       </c>
@@ -19183,6 +20551,9 @@
       <c r="H458">
         <v>72</v>
       </c>
+      <c r="I458">
+        <v>1.2</v>
+      </c>
       <c r="J458" t="s">
         <v>18</v>
       </c>
@@ -19218,6 +20589,9 @@
       <c r="H459">
         <v>77</v>
       </c>
+      <c r="I459">
+        <v>1.61</v>
+      </c>
       <c r="J459" t="s">
         <v>19</v>
       </c>
@@ -19253,6 +20627,9 @@
       <c r="H460">
         <v>71</v>
       </c>
+      <c r="I460">
+        <v>1.02</v>
+      </c>
       <c r="J460" t="s">
         <v>20</v>
       </c>
@@ -19288,6 +20665,9 @@
       <c r="H461">
         <v>92</v>
       </c>
+      <c r="I461">
+        <v>1.4</v>
+      </c>
       <c r="J461" t="s">
         <v>18</v>
       </c>
@@ -19323,6 +20703,9 @@
       <c r="H462">
         <v>55</v>
       </c>
+      <c r="I462">
+        <v>1.55</v>
+      </c>
       <c r="J462" t="s">
         <v>19</v>
       </c>
@@ -19358,6 +20741,9 @@
       <c r="H463">
         <v>61</v>
       </c>
+      <c r="I463">
+        <v>1.94</v>
+      </c>
       <c r="J463" t="s">
         <v>20</v>
       </c>
@@ -19393,6 +20779,9 @@
       <c r="H464">
         <v>82</v>
       </c>
+      <c r="I464">
+        <v>1.74</v>
+      </c>
       <c r="J464" t="s">
         <v>18</v>
       </c>
@@ -19428,6 +20817,9 @@
       <c r="H465">
         <v>86</v>
       </c>
+      <c r="I465">
+        <v>1.45</v>
+      </c>
       <c r="J465" t="s">
         <v>19</v>
       </c>
@@ -19463,6 +20855,9 @@
       <c r="H466">
         <v>86</v>
       </c>
+      <c r="I466">
+        <v>1.77</v>
+      </c>
       <c r="J466" t="s">
         <v>20</v>
       </c>
@@ -19498,6 +20893,9 @@
       <c r="H467">
         <v>100</v>
       </c>
+      <c r="I467">
+        <v>1.62</v>
+      </c>
       <c r="J467" t="s">
         <v>18</v>
       </c>
@@ -19533,6 +20931,9 @@
       <c r="H468">
         <v>94</v>
       </c>
+      <c r="I468">
+        <v>1.69</v>
+      </c>
       <c r="J468" t="s">
         <v>19</v>
       </c>
@@ -19568,6 +20969,9 @@
       <c r="H469">
         <v>75</v>
       </c>
+      <c r="I469">
+        <v>1.51</v>
+      </c>
       <c r="J469" t="s">
         <v>20</v>
       </c>
@@ -19603,6 +21007,9 @@
       <c r="H470">
         <v>77</v>
       </c>
+      <c r="I470">
+        <v>1.71</v>
+      </c>
       <c r="J470" t="s">
         <v>18</v>
       </c>
@@ -19638,6 +21045,9 @@
       <c r="H471">
         <v>67</v>
       </c>
+      <c r="I471">
+        <v>1.59</v>
+      </c>
       <c r="J471" t="s">
         <v>19</v>
       </c>
@@ -19673,6 +21083,9 @@
       <c r="H472">
         <v>81</v>
       </c>
+      <c r="I472">
+        <v>1.05</v>
+      </c>
       <c r="J472" t="s">
         <v>20</v>
       </c>
@@ -19708,6 +21121,9 @@
       <c r="H473">
         <v>50</v>
       </c>
+      <c r="I473">
+        <v>1.73</v>
+      </c>
       <c r="J473" t="s">
         <v>18</v>
       </c>
@@ -19743,6 +21159,9 @@
       <c r="H474">
         <v>73</v>
       </c>
+      <c r="I474">
+        <v>1.96</v>
+      </c>
       <c r="J474" t="s">
         <v>19</v>
       </c>
@@ -19778,6 +21197,9 @@
       <c r="H475">
         <v>81</v>
       </c>
+      <c r="I475">
+        <v>1.54</v>
+      </c>
       <c r="J475" t="s">
         <v>20</v>
       </c>
@@ -19813,6 +21235,9 @@
       <c r="H476">
         <v>82</v>
       </c>
+      <c r="I476">
+        <v>1.4</v>
+      </c>
       <c r="J476" t="s">
         <v>18</v>
       </c>
@@ -19848,6 +21273,9 @@
       <c r="H477">
         <v>67</v>
       </c>
+      <c r="I477">
+        <v>1.75</v>
+      </c>
       <c r="J477" t="s">
         <v>19</v>
       </c>
@@ -19883,6 +21311,9 @@
       <c r="H478">
         <v>92</v>
       </c>
+      <c r="I478">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J478" t="s">
         <v>20</v>
       </c>
@@ -19918,6 +21349,9 @@
       <c r="H479">
         <v>60</v>
       </c>
+      <c r="I479">
+        <v>1.56</v>
+      </c>
       <c r="J479" t="s">
         <v>18</v>
       </c>
@@ -19953,6 +21387,9 @@
       <c r="H480">
         <v>66</v>
       </c>
+      <c r="I480">
+        <v>1.56</v>
+      </c>
       <c r="J480" t="s">
         <v>19</v>
       </c>
@@ -19988,6 +21425,9 @@
       <c r="H481">
         <v>76</v>
       </c>
+      <c r="I481">
+        <v>1.99</v>
+      </c>
       <c r="J481" t="s">
         <v>20</v>
       </c>
@@ -20023,6 +21463,9 @@
       <c r="H482">
         <v>69</v>
       </c>
+      <c r="I482">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J482" t="s">
         <v>18</v>
       </c>
@@ -20058,6 +21501,9 @@
       <c r="H483">
         <v>93</v>
       </c>
+      <c r="I483">
+        <v>1.9</v>
+      </c>
       <c r="J483" t="s">
         <v>19</v>
       </c>
@@ -20093,6 +21539,9 @@
       <c r="H484">
         <v>65</v>
       </c>
+      <c r="I484">
+        <v>1.91</v>
+      </c>
       <c r="J484" t="s">
         <v>20</v>
       </c>
@@ -20128,6 +21577,9 @@
       <c r="H485">
         <v>86</v>
       </c>
+      <c r="I485">
+        <v>1.59</v>
+      </c>
       <c r="J485" t="s">
         <v>18</v>
       </c>
@@ -20163,6 +21615,9 @@
       <c r="H486">
         <v>87</v>
       </c>
+      <c r="I486">
+        <v>1.92</v>
+      </c>
       <c r="J486" t="s">
         <v>19</v>
       </c>
@@ -20198,6 +21653,9 @@
       <c r="H487">
         <v>62</v>
       </c>
+      <c r="I487">
+        <v>1.94</v>
+      </c>
       <c r="J487" t="s">
         <v>20</v>
       </c>
@@ -20233,6 +21691,9 @@
       <c r="H488">
         <v>79</v>
       </c>
+      <c r="I488">
+        <v>1.89</v>
+      </c>
       <c r="J488" t="s">
         <v>18</v>
       </c>
@@ -20268,6 +21729,9 @@
       <c r="H489">
         <v>84</v>
       </c>
+      <c r="I489">
+        <v>1.31</v>
+      </c>
       <c r="J489" t="s">
         <v>19</v>
       </c>
@@ -20303,6 +21767,9 @@
       <c r="H490">
         <v>68</v>
       </c>
+      <c r="I490">
+        <v>1.03</v>
+      </c>
       <c r="J490" t="s">
         <v>20</v>
       </c>
@@ -20338,6 +21805,9 @@
       <c r="H491">
         <v>85</v>
       </c>
+      <c r="I491">
+        <v>1.38</v>
+      </c>
       <c r="J491" t="s">
         <v>18</v>
       </c>
@@ -20373,6 +21843,9 @@
       <c r="H492">
         <v>82</v>
       </c>
+      <c r="I492">
+        <v>1.99</v>
+      </c>
       <c r="J492" t="s">
         <v>19</v>
       </c>
@@ -20408,6 +21881,9 @@
       <c r="H493">
         <v>66</v>
       </c>
+      <c r="I493">
+        <v>1.73</v>
+      </c>
       <c r="J493" t="s">
         <v>20</v>
       </c>
@@ -20443,6 +21919,9 @@
       <c r="H494">
         <v>98</v>
       </c>
+      <c r="I494">
+        <v>1.84</v>
+      </c>
       <c r="J494" t="s">
         <v>18</v>
       </c>
@@ -20478,6 +21957,9 @@
       <c r="H495">
         <v>100</v>
       </c>
+      <c r="I495">
+        <v>1.23</v>
+      </c>
       <c r="J495" t="s">
         <v>19</v>
       </c>
@@ -20513,6 +21995,9 @@
       <c r="H496">
         <v>96</v>
       </c>
+      <c r="I496">
+        <v>1.49</v>
+      </c>
       <c r="J496" t="s">
         <v>20</v>
       </c>
@@ -20548,6 +22033,9 @@
       <c r="H497">
         <v>81</v>
       </c>
+      <c r="I497">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J497" t="s">
         <v>18</v>
       </c>
@@ -20583,6 +22071,9 @@
       <c r="H498">
         <v>74</v>
       </c>
+      <c r="I498">
+        <v>1.46</v>
+      </c>
       <c r="J498" t="s">
         <v>19</v>
       </c>
@@ -20618,6 +22109,9 @@
       <c r="H499">
         <v>80</v>
       </c>
+      <c r="I499">
+        <v>1.68</v>
+      </c>
       <c r="J499" t="s">
         <v>20</v>
       </c>
@@ -20653,6 +22147,9 @@
       <c r="H500">
         <v>68</v>
       </c>
+      <c r="I500">
+        <v>1.97</v>
+      </c>
       <c r="J500" t="s">
         <v>18</v>
       </c>
@@ -20688,6 +22185,9 @@
       <c r="H501">
         <v>53</v>
       </c>
+      <c r="I501">
+        <v>1.48</v>
+      </c>
       <c r="J501" t="s">
         <v>19</v>
       </c>
@@ -20723,6 +22223,9 @@
       <c r="H502">
         <v>68</v>
       </c>
+      <c r="I502">
+        <v>1.9</v>
+      </c>
       <c r="J502" t="s">
         <v>20</v>
       </c>
@@ -20758,6 +22261,9 @@
       <c r="H503">
         <v>86</v>
       </c>
+      <c r="I503">
+        <v>1.18</v>
+      </c>
       <c r="J503" t="s">
         <v>18</v>
       </c>
@@ -20793,6 +22299,9 @@
       <c r="H504">
         <v>67</v>
       </c>
+      <c r="I504">
+        <v>1.98</v>
+      </c>
       <c r="J504" t="s">
         <v>19</v>
       </c>
@@ -20828,6 +22337,9 @@
       <c r="H505">
         <v>81</v>
       </c>
+      <c r="I505">
+        <v>1.26</v>
+      </c>
       <c r="J505" t="s">
         <v>20</v>
       </c>
@@ -20863,6 +22375,9 @@
       <c r="H506">
         <v>80</v>
       </c>
+      <c r="I506">
+        <v>1.75</v>
+      </c>
       <c r="J506" t="s">
         <v>18</v>
       </c>
@@ -20898,6 +22413,9 @@
       <c r="H507">
         <v>54</v>
       </c>
+      <c r="I507">
+        <v>1.63</v>
+      </c>
       <c r="J507" t="s">
         <v>19</v>
       </c>
@@ -20933,6 +22451,9 @@
       <c r="H508">
         <v>86</v>
       </c>
+      <c r="I508">
+        <v>1.67</v>
+      </c>
       <c r="J508" t="s">
         <v>20</v>
       </c>
@@ -20968,6 +22489,9 @@
       <c r="H509">
         <v>86</v>
       </c>
+      <c r="I509">
+        <v>1.83</v>
+      </c>
       <c r="J509" t="s">
         <v>18</v>
       </c>
@@ -21003,6 +22527,9 @@
       <c r="H510">
         <v>65</v>
       </c>
+      <c r="I510">
+        <v>1.96</v>
+      </c>
       <c r="J510" t="s">
         <v>19</v>
       </c>
@@ -21038,6 +22565,9 @@
       <c r="H511">
         <v>80</v>
       </c>
+      <c r="I511">
+        <v>1.77</v>
+      </c>
       <c r="J511" t="s">
         <v>20</v>
       </c>
@@ -21073,6 +22603,9 @@
       <c r="H512">
         <v>66</v>
       </c>
+      <c r="I512">
+        <v>1.23</v>
+      </c>
       <c r="J512" t="s">
         <v>18</v>
       </c>
@@ -21108,6 +22641,9 @@
       <c r="H513">
         <v>63</v>
       </c>
+      <c r="I513">
+        <v>1.86</v>
+      </c>
       <c r="J513" t="s">
         <v>19</v>
       </c>
@@ -21143,6 +22679,9 @@
       <c r="H514">
         <v>50</v>
       </c>
+      <c r="I514">
+        <v>1.08</v>
+      </c>
       <c r="J514" t="s">
         <v>20</v>
       </c>
@@ -21178,6 +22717,9 @@
       <c r="H515">
         <v>67</v>
       </c>
+      <c r="I515">
+        <v>1.25</v>
+      </c>
       <c r="J515" t="s">
         <v>18</v>
       </c>
@@ -21213,6 +22755,9 @@
       <c r="H516">
         <v>92</v>
       </c>
+      <c r="I516">
+        <v>1.59</v>
+      </c>
       <c r="J516" t="s">
         <v>19</v>
       </c>
@@ -21248,6 +22793,9 @@
       <c r="H517">
         <v>60</v>
       </c>
+      <c r="I517">
+        <v>1.03</v>
+      </c>
       <c r="J517" t="s">
         <v>20</v>
       </c>
@@ -21283,6 +22831,9 @@
       <c r="H518">
         <v>54</v>
       </c>
+      <c r="I518">
+        <v>1.05</v>
+      </c>
       <c r="J518" t="s">
         <v>18</v>
       </c>
@@ -21318,6 +22869,9 @@
       <c r="H519">
         <v>68</v>
       </c>
+      <c r="I519">
+        <v>1.34</v>
+      </c>
       <c r="J519" t="s">
         <v>19</v>
       </c>
@@ -21353,6 +22907,9 @@
       <c r="H520">
         <v>65</v>
       </c>
+      <c r="I520">
+        <v>1.7</v>
+      </c>
       <c r="J520" t="s">
         <v>20</v>
       </c>
@@ -21388,6 +22945,9 @@
       <c r="H521">
         <v>92</v>
       </c>
+      <c r="I521">
+        <v>1.76</v>
+      </c>
       <c r="J521" t="s">
         <v>18</v>
       </c>
@@ -21423,6 +22983,9 @@
       <c r="H522">
         <v>84</v>
       </c>
+      <c r="I522">
+        <v>1.46</v>
+      </c>
       <c r="J522" t="s">
         <v>19</v>
       </c>
@@ -21458,6 +23021,9 @@
       <c r="H523">
         <v>87</v>
       </c>
+      <c r="I523">
+        <v>1.93</v>
+      </c>
       <c r="J523" t="s">
         <v>20</v>
       </c>
@@ -21493,6 +23059,9 @@
       <c r="H524">
         <v>75</v>
       </c>
+      <c r="I524">
+        <v>1.87</v>
+      </c>
       <c r="J524" t="s">
         <v>18</v>
       </c>
@@ -21528,6 +23097,9 @@
       <c r="H525">
         <v>55</v>
       </c>
+      <c r="I525">
+        <v>1.29</v>
+      </c>
       <c r="J525" t="s">
         <v>19</v>
       </c>
@@ -21563,6 +23135,9 @@
       <c r="H526">
         <v>70</v>
       </c>
+      <c r="I526">
+        <v>1.91</v>
+      </c>
       <c r="J526" t="s">
         <v>20</v>
       </c>
@@ -21598,6 +23173,9 @@
       <c r="H527">
         <v>94</v>
       </c>
+      <c r="I527">
+        <v>1.66</v>
+      </c>
       <c r="J527" t="s">
         <v>18</v>
       </c>
@@ -21633,6 +23211,9 @@
       <c r="H528">
         <v>74</v>
       </c>
+      <c r="I528">
+        <v>1.49</v>
+      </c>
       <c r="J528" t="s">
         <v>19</v>
       </c>
@@ -21668,6 +23249,9 @@
       <c r="H529">
         <v>57</v>
       </c>
+      <c r="I529">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="J529" t="s">
         <v>20</v>
       </c>
@@ -21703,6 +23287,9 @@
       <c r="H530">
         <v>50</v>
       </c>
+      <c r="I530">
+        <v>1.24</v>
+      </c>
       <c r="J530" t="s">
         <v>18</v>
       </c>
@@ -21738,6 +23325,9 @@
       <c r="H531">
         <v>90</v>
       </c>
+      <c r="I531">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="J531" t="s">
         <v>19</v>
       </c>
@@ -21773,6 +23363,9 @@
       <c r="H532">
         <v>62</v>
       </c>
+      <c r="I532">
+        <v>1.32</v>
+      </c>
       <c r="J532" t="s">
         <v>20</v>
       </c>
@@ -21808,6 +23401,9 @@
       <c r="H533">
         <v>100</v>
       </c>
+      <c r="I533">
+        <v>1.78</v>
+      </c>
       <c r="J533" t="s">
         <v>18</v>
       </c>
@@ -21843,6 +23439,9 @@
       <c r="H534">
         <v>100</v>
       </c>
+      <c r="I534">
+        <v>1.62</v>
+      </c>
       <c r="J534" t="s">
         <v>19</v>
       </c>
@@ -21878,6 +23477,9 @@
       <c r="H535">
         <v>91</v>
       </c>
+      <c r="I535">
+        <v>1.53</v>
+      </c>
       <c r="J535" t="s">
         <v>20</v>
       </c>
@@ -21913,6 +23515,9 @@
       <c r="H536">
         <v>97</v>
       </c>
+      <c r="I536">
+        <v>1.21</v>
+      </c>
       <c r="J536" t="s">
         <v>18</v>
       </c>
@@ -21948,6 +23553,9 @@
       <c r="H537">
         <v>77</v>
       </c>
+      <c r="I537">
+        <v>1.83</v>
+      </c>
       <c r="J537" t="s">
         <v>19</v>
       </c>
@@ -21983,6 +23591,9 @@
       <c r="H538">
         <v>63</v>
       </c>
+      <c r="I538">
+        <v>1.67</v>
+      </c>
       <c r="J538" t="s">
         <v>20</v>
       </c>
@@ -22018,6 +23629,9 @@
       <c r="H539">
         <v>57</v>
       </c>
+      <c r="I539">
+        <v>1.28</v>
+      </c>
       <c r="J539" t="s">
         <v>18</v>
       </c>
@@ -22053,6 +23667,9 @@
       <c r="H540">
         <v>71</v>
       </c>
+      <c r="I540">
+        <v>1.53</v>
+      </c>
       <c r="J540" t="s">
         <v>19</v>
       </c>
@@ -22088,6 +23705,9 @@
       <c r="H541">
         <v>99</v>
       </c>
+      <c r="I541">
+        <v>1.85</v>
+      </c>
       <c r="J541" t="s">
         <v>20</v>
       </c>
@@ -22123,6 +23743,9 @@
       <c r="H542">
         <v>88</v>
       </c>
+      <c r="I542">
+        <v>1.92</v>
+      </c>
       <c r="J542" t="s">
         <v>18</v>
       </c>
@@ -22158,6 +23781,9 @@
       <c r="H543">
         <v>87</v>
       </c>
+      <c r="I543">
+        <v>1.08</v>
+      </c>
       <c r="J543" t="s">
         <v>19</v>
       </c>
@@ -22193,6 +23819,9 @@
       <c r="H544">
         <v>61</v>
       </c>
+      <c r="I544">
+        <v>1.41</v>
+      </c>
       <c r="J544" t="s">
         <v>20</v>
       </c>
@@ -22228,6 +23857,9 @@
       <c r="H545">
         <v>94</v>
       </c>
+      <c r="I545">
+        <v>1.39</v>
+      </c>
       <c r="J545" t="s">
         <v>18</v>
       </c>
@@ -22263,6 +23895,9 @@
       <c r="H546">
         <v>74</v>
       </c>
+      <c r="I546">
+        <v>1.58</v>
+      </c>
       <c r="J546" t="s">
         <v>19</v>
       </c>
@@ -22298,6 +23933,9 @@
       <c r="H547">
         <v>70</v>
       </c>
+      <c r="I547">
+        <v>1.85</v>
+      </c>
       <c r="J547" t="s">
         <v>20</v>
       </c>
@@ -22333,6 +23971,9 @@
       <c r="H548">
         <v>97</v>
       </c>
+      <c r="I548">
+        <v>1.36</v>
+      </c>
       <c r="J548" t="s">
         <v>18</v>
       </c>
@@ -22368,6 +24009,9 @@
       <c r="H549">
         <v>68</v>
       </c>
+      <c r="I549">
+        <v>1.58</v>
+      </c>
       <c r="J549" t="s">
         <v>19</v>
       </c>
@@ -22403,6 +24047,9 @@
       <c r="H550">
         <v>94</v>
       </c>
+      <c r="I550">
+        <v>1.69</v>
+      </c>
       <c r="J550" t="s">
         <v>20</v>
       </c>
@@ -22438,6 +24085,9 @@
       <c r="H551">
         <v>63</v>
       </c>
+      <c r="I551">
+        <v>1.31</v>
+      </c>
       <c r="J551" t="s">
         <v>18</v>
       </c>
@@ -22473,6 +24123,9 @@
       <c r="H552">
         <v>59</v>
       </c>
+      <c r="I552">
+        <v>1.78</v>
+      </c>
       <c r="J552" t="s">
         <v>19</v>
       </c>
@@ -22508,6 +24161,9 @@
       <c r="H553">
         <v>56</v>
       </c>
+      <c r="I553">
+        <v>1.55</v>
+      </c>
       <c r="J553" t="s">
         <v>20</v>
       </c>
@@ -22543,6 +24199,9 @@
       <c r="H554">
         <v>92</v>
       </c>
+      <c r="I554">
+        <v>1.34</v>
+      </c>
       <c r="J554" t="s">
         <v>18</v>
       </c>
@@ -22578,6 +24237,9 @@
       <c r="H555">
         <v>56</v>
       </c>
+      <c r="I555">
+        <v>1.5</v>
+      </c>
       <c r="J555" t="s">
         <v>19</v>
       </c>
@@ -22613,6 +24275,9 @@
       <c r="H556">
         <v>63</v>
       </c>
+      <c r="I556">
+        <v>1.24</v>
+      </c>
       <c r="J556" t="s">
         <v>20</v>
       </c>
@@ -22648,6 +24313,9 @@
       <c r="H557">
         <v>70</v>
       </c>
+      <c r="I557">
+        <v>1.81</v>
+      </c>
       <c r="J557" t="s">
         <v>18</v>
       </c>
@@ -22683,6 +24351,9 @@
       <c r="H558">
         <v>92</v>
       </c>
+      <c r="I558">
+        <v>1.86</v>
+      </c>
       <c r="J558" t="s">
         <v>19</v>
       </c>
@@ -22718,6 +24389,9 @@
       <c r="H559">
         <v>59</v>
       </c>
+      <c r="I559">
+        <v>1.87</v>
+      </c>
       <c r="J559" t="s">
         <v>20</v>
       </c>
@@ -22753,6 +24427,9 @@
       <c r="H560">
         <v>83</v>
       </c>
+      <c r="I560">
+        <v>1.33</v>
+      </c>
       <c r="J560" t="s">
         <v>18</v>
       </c>
@@ -22788,6 +24465,9 @@
       <c r="H561">
         <v>54</v>
       </c>
+      <c r="I561">
+        <v>1.08</v>
+      </c>
       <c r="J561" t="s">
         <v>19</v>
       </c>
@@ -22823,6 +24503,9 @@
       <c r="H562">
         <v>58</v>
       </c>
+      <c r="I562">
+        <v>1.25</v>
+      </c>
       <c r="J562" t="s">
         <v>20</v>
       </c>
@@ -22858,6 +24541,9 @@
       <c r="H563">
         <v>95</v>
       </c>
+      <c r="I563">
+        <v>1.41</v>
+      </c>
       <c r="J563" t="s">
         <v>18</v>
       </c>
@@ -22893,6 +24579,9 @@
       <c r="H564">
         <v>89</v>
       </c>
+      <c r="I564">
+        <v>1.97</v>
+      </c>
       <c r="J564" t="s">
         <v>19</v>
       </c>
@@ -22928,6 +24617,9 @@
       <c r="H565">
         <v>60</v>
       </c>
+      <c r="I565">
+        <v>1.79</v>
+      </c>
       <c r="J565" t="s">
         <v>20</v>
       </c>
@@ -22963,6 +24655,9 @@
       <c r="H566">
         <v>99</v>
       </c>
+      <c r="I566">
+        <v>1.83</v>
+      </c>
       <c r="J566" t="s">
         <v>18</v>
       </c>
@@ -22998,6 +24693,9 @@
       <c r="H567">
         <v>100</v>
       </c>
+      <c r="I567">
+        <v>1.96</v>
+      </c>
       <c r="J567" t="s">
         <v>19</v>
       </c>
@@ -23033,6 +24731,9 @@
       <c r="H568">
         <v>58</v>
       </c>
+      <c r="I568">
+        <v>1.65</v>
+      </c>
       <c r="J568" t="s">
         <v>20</v>
       </c>
@@ -23068,6 +24769,9 @@
       <c r="H569">
         <v>55</v>
       </c>
+      <c r="I569">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="J569" t="s">
         <v>18</v>
       </c>
@@ -23103,6 +24807,9 @@
       <c r="H570">
         <v>55</v>
       </c>
+      <c r="I570">
+        <v>1.77</v>
+      </c>
       <c r="J570" t="s">
         <v>19</v>
       </c>
@@ -23138,6 +24845,9 @@
       <c r="H571">
         <v>55</v>
       </c>
+      <c r="I571">
+        <v>1.08</v>
+      </c>
       <c r="J571" t="s">
         <v>20</v>
       </c>
@@ -23173,6 +24883,9 @@
       <c r="H572">
         <v>85</v>
       </c>
+      <c r="I572">
+        <v>1.95</v>
+      </c>
       <c r="J572" t="s">
         <v>18</v>
       </c>
@@ -23208,6 +24921,9 @@
       <c r="H573">
         <v>54</v>
       </c>
+      <c r="I573">
+        <v>1.77</v>
+      </c>
       <c r="J573" t="s">
         <v>19</v>
       </c>
@@ -23243,6 +24959,9 @@
       <c r="H574">
         <v>62</v>
       </c>
+      <c r="I574">
+        <v>1.26</v>
+      </c>
       <c r="J574" t="s">
         <v>20</v>
       </c>
@@ -23278,6 +24997,9 @@
       <c r="H575">
         <v>84</v>
       </c>
+      <c r="I575">
+        <v>1.94</v>
+      </c>
       <c r="J575" t="s">
         <v>18</v>
       </c>
@@ -23313,6 +25035,9 @@
       <c r="H576">
         <v>84</v>
       </c>
+      <c r="I576">
+        <v>1.95</v>
+      </c>
       <c r="J576" t="s">
         <v>19</v>
       </c>
@@ -23348,6 +25073,9 @@
       <c r="H577">
         <v>62</v>
       </c>
+      <c r="I577">
+        <v>1.92</v>
+      </c>
       <c r="J577" t="s">
         <v>20</v>
       </c>
@@ -23383,6 +25111,9 @@
       <c r="H578">
         <v>92</v>
       </c>
+      <c r="I578">
+        <v>1.61</v>
+      </c>
       <c r="J578" t="s">
         <v>18</v>
       </c>
@@ -23418,6 +25149,9 @@
       <c r="H579">
         <v>68</v>
       </c>
+      <c r="I579">
+        <v>1.08</v>
+      </c>
       <c r="J579" t="s">
         <v>19</v>
       </c>
@@ -23453,6 +25187,9 @@
       <c r="H580">
         <v>77</v>
       </c>
+      <c r="I580">
+        <v>1.61</v>
+      </c>
       <c r="J580" t="s">
         <v>20</v>
       </c>
@@ -23488,6 +25225,9 @@
       <c r="H581">
         <v>52</v>
       </c>
+      <c r="I581">
+        <v>1.25</v>
+      </c>
       <c r="J581" t="s">
         <v>18</v>
       </c>
@@ -23523,6 +25263,9 @@
       <c r="H582">
         <v>75</v>
       </c>
+      <c r="I582">
+        <v>1.01</v>
+      </c>
       <c r="J582" t="s">
         <v>19</v>
       </c>
@@ -23558,6 +25301,9 @@
       <c r="H583">
         <v>88</v>
       </c>
+      <c r="I583">
+        <v>1.23</v>
+      </c>
       <c r="J583" t="s">
         <v>20</v>
       </c>
@@ -23593,6 +25339,9 @@
       <c r="H584">
         <v>53</v>
       </c>
+      <c r="I584">
+        <v>1.04</v>
+      </c>
       <c r="J584" t="s">
         <v>18</v>
       </c>
@@ -23628,6 +25377,9 @@
       <c r="H585">
         <v>56</v>
       </c>
+      <c r="I585">
+        <v>1.62</v>
+      </c>
       <c r="J585" t="s">
         <v>19</v>
       </c>
@@ -23663,6 +25415,9 @@
       <c r="H586">
         <v>53</v>
       </c>
+      <c r="I586">
+        <v>1.17</v>
+      </c>
       <c r="J586" t="s">
         <v>20</v>
       </c>
@@ -23698,6 +25453,9 @@
       <c r="H587">
         <v>89</v>
       </c>
+      <c r="I587">
+        <v>1.01</v>
+      </c>
       <c r="J587" t="s">
         <v>18</v>
       </c>
@@ -23733,6 +25491,9 @@
       <c r="H588">
         <v>90</v>
       </c>
+      <c r="I588">
+        <v>1.18</v>
+      </c>
       <c r="J588" t="s">
         <v>19</v>
       </c>
@@ -23768,6 +25529,9 @@
       <c r="H589">
         <v>84</v>
       </c>
+      <c r="I589">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="J589" t="s">
         <v>20</v>
       </c>
@@ -23803,6 +25567,9 @@
       <c r="H590">
         <v>62</v>
       </c>
+      <c r="I590">
+        <v>1.95</v>
+      </c>
       <c r="J590" t="s">
         <v>18</v>
       </c>
@@ -23838,6 +25605,9 @@
       <c r="H591">
         <v>54</v>
       </c>
+      <c r="I591">
+        <v>1.61</v>
+      </c>
       <c r="J591" t="s">
         <v>19</v>
       </c>
@@ -23873,6 +25643,9 @@
       <c r="H592">
         <v>81</v>
       </c>
+      <c r="I592">
+        <v>1.78</v>
+      </c>
       <c r="J592" t="s">
         <v>20</v>
       </c>
@@ -23908,6 +25681,9 @@
       <c r="H593">
         <v>55</v>
       </c>
+      <c r="I593">
+        <v>1.02</v>
+      </c>
       <c r="J593" t="s">
         <v>18</v>
       </c>
@@ -23943,6 +25719,9 @@
       <c r="H594">
         <v>72</v>
       </c>
+      <c r="I594">
+        <v>1.3</v>
+      </c>
       <c r="J594" t="s">
         <v>19</v>
       </c>
@@ -23978,6 +25757,9 @@
       <c r="H595">
         <v>87</v>
       </c>
+      <c r="I595">
+        <v>1.34</v>
+      </c>
       <c r="J595" t="s">
         <v>20</v>
       </c>
@@ -24013,6 +25795,9 @@
       <c r="H596">
         <v>89</v>
       </c>
+      <c r="I596">
+        <v>1.08</v>
+      </c>
       <c r="J596" t="s">
         <v>18</v>
       </c>
@@ -24048,6 +25833,9 @@
       <c r="H597">
         <v>74</v>
       </c>
+      <c r="I597">
+        <v>1.19</v>
+      </c>
       <c r="J597" t="s">
         <v>19</v>
       </c>
@@ -24083,6 +25871,9 @@
       <c r="H598">
         <v>81</v>
       </c>
+      <c r="I598">
+        <v>1.49</v>
+      </c>
       <c r="J598" t="s">
         <v>20</v>
       </c>
@@ -24118,6 +25909,9 @@
       <c r="H599">
         <v>79</v>
       </c>
+      <c r="I599">
+        <v>1.27</v>
+      </c>
       <c r="J599" t="s">
         <v>18</v>
       </c>
@@ -24153,6 +25947,9 @@
       <c r="H600">
         <v>66</v>
       </c>
+      <c r="I600">
+        <v>1.22</v>
+      </c>
       <c r="J600" t="s">
         <v>19</v>
       </c>
@@ -24188,6 +25985,9 @@
       <c r="H601">
         <v>100</v>
       </c>
+      <c r="I601">
+        <v>1.42</v>
+      </c>
       <c r="J601" t="s">
         <v>20</v>
       </c>
@@ -24223,6 +26023,9 @@
       <c r="H602">
         <v>93</v>
       </c>
+      <c r="I602">
+        <v>1.9</v>
+      </c>
       <c r="J602" t="s">
         <v>18</v>
       </c>
@@ -24258,6 +26061,9 @@
       <c r="H603">
         <v>92</v>
       </c>
+      <c r="I603">
+        <v>1.81</v>
+      </c>
       <c r="J603" t="s">
         <v>19</v>
       </c>
@@ -24293,6 +26099,9 @@
       <c r="H604">
         <v>86</v>
       </c>
+      <c r="I604">
+        <v>1.45</v>
+      </c>
       <c r="J604" t="s">
         <v>20</v>
       </c>
@@ -24328,6 +26137,9 @@
       <c r="H605">
         <v>96</v>
       </c>
+      <c r="I605">
+        <v>1.38</v>
+      </c>
       <c r="J605" t="s">
         <v>18</v>
       </c>
@@ -24363,6 +26175,9 @@
       <c r="H606">
         <v>86</v>
       </c>
+      <c r="I606">
+        <v>1.57</v>
+      </c>
       <c r="J606" t="s">
         <v>19</v>
       </c>
@@ -24398,6 +26213,9 @@
       <c r="H607">
         <v>88</v>
       </c>
+      <c r="I607">
+        <v>1.73</v>
+      </c>
       <c r="J607" t="s">
         <v>20</v>
       </c>
@@ -24433,6 +26251,9 @@
       <c r="H608">
         <v>59</v>
       </c>
+      <c r="I608">
+        <v>1.08</v>
+      </c>
       <c r="J608" t="s">
         <v>18</v>
       </c>
@@ -24468,6 +26289,9 @@
       <c r="H609">
         <v>51</v>
       </c>
+      <c r="I609">
+        <v>1.49</v>
+      </c>
       <c r="J609" t="s">
         <v>19</v>
       </c>
@@ -24503,6 +26327,9 @@
       <c r="H610">
         <v>94</v>
       </c>
+      <c r="I610">
+        <v>1.55</v>
+      </c>
       <c r="J610" t="s">
         <v>20</v>
       </c>
@@ -24538,6 +26365,9 @@
       <c r="H611">
         <v>55</v>
       </c>
+      <c r="I611">
+        <v>1.94</v>
+      </c>
       <c r="J611" t="s">
         <v>18</v>
       </c>
@@ -24573,6 +26403,9 @@
       <c r="H612">
         <v>61</v>
       </c>
+      <c r="I612">
+        <v>1.84</v>
+      </c>
       <c r="J612" t="s">
         <v>19</v>
       </c>
@@ -24608,6 +26441,9 @@
       <c r="H613">
         <v>83</v>
       </c>
+      <c r="I613">
+        <v>1.59</v>
+      </c>
       <c r="J613" t="s">
         <v>20</v>
       </c>
@@ -24643,6 +26479,9 @@
       <c r="H614">
         <v>81</v>
       </c>
+      <c r="I614">
+        <v>1.95</v>
+      </c>
       <c r="J614" t="s">
         <v>18</v>
       </c>
@@ -24678,6 +26517,9 @@
       <c r="H615">
         <v>94</v>
       </c>
+      <c r="I615">
+        <v>1.32</v>
+      </c>
       <c r="J615" t="s">
         <v>19</v>
       </c>
@@ -24713,6 +26555,9 @@
       <c r="H616">
         <v>54</v>
       </c>
+      <c r="I616">
+        <v>1.06</v>
+      </c>
       <c r="J616" t="s">
         <v>20</v>
       </c>
@@ -24748,6 +26593,9 @@
       <c r="H617">
         <v>84</v>
       </c>
+      <c r="I617">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J617" t="s">
         <v>18</v>
       </c>
@@ -24783,6 +26631,9 @@
       <c r="H618">
         <v>50</v>
       </c>
+      <c r="I618">
+        <v>1.57</v>
+      </c>
       <c r="J618" t="s">
         <v>19</v>
       </c>
@@ -24818,6 +26669,9 @@
       <c r="H619">
         <v>99</v>
       </c>
+      <c r="I619">
+        <v>1.07</v>
+      </c>
       <c r="J619" t="s">
         <v>20</v>
       </c>
@@ -24853,6 +26707,9 @@
       <c r="H620">
         <v>97</v>
       </c>
+      <c r="I620">
+        <v>1.08</v>
+      </c>
       <c r="J620" t="s">
         <v>18</v>
       </c>
@@ -24888,6 +26745,9 @@
       <c r="H621">
         <v>92</v>
       </c>
+      <c r="I621">
+        <v>1.96</v>
+      </c>
       <c r="J621" t="s">
         <v>19</v>
       </c>
@@ -24923,6 +26783,9 @@
       <c r="H622">
         <v>80</v>
       </c>
+      <c r="I622">
+        <v>1.62</v>
+      </c>
       <c r="J622" t="s">
         <v>20</v>
       </c>
@@ -24958,6 +26821,9 @@
       <c r="H623">
         <v>100</v>
       </c>
+      <c r="I623">
+        <v>1.92</v>
+      </c>
       <c r="J623" t="s">
         <v>18</v>
       </c>
@@ -24993,6 +26859,9 @@
       <c r="H624">
         <v>80</v>
       </c>
+      <c r="I624">
+        <v>1.96</v>
+      </c>
       <c r="J624" t="s">
         <v>19</v>
       </c>
@@ -25028,6 +26897,9 @@
       <c r="H625">
         <v>73</v>
       </c>
+      <c r="I625">
+        <v>1.64</v>
+      </c>
       <c r="J625" t="s">
         <v>20</v>
       </c>
@@ -25063,6 +26935,9 @@
       <c r="H626">
         <v>76</v>
       </c>
+      <c r="I626">
+        <v>1.06</v>
+      </c>
       <c r="J626" t="s">
         <v>18</v>
       </c>
@@ -25098,6 +26973,9 @@
       <c r="H627">
         <v>52</v>
       </c>
+      <c r="I627">
+        <v>1.89</v>
+      </c>
       <c r="J627" t="s">
         <v>19</v>
       </c>
@@ -25133,6 +27011,9 @@
       <c r="H628">
         <v>65</v>
       </c>
+      <c r="I628">
+        <v>1.68</v>
+      </c>
       <c r="J628" t="s">
         <v>20</v>
       </c>
@@ -25168,6 +27049,9 @@
       <c r="H629">
         <v>64</v>
       </c>
+      <c r="I629">
+        <v>1.77</v>
+      </c>
       <c r="J629" t="s">
         <v>18</v>
       </c>
@@ -25203,6 +27087,9 @@
       <c r="H630">
         <v>98</v>
       </c>
+      <c r="I630">
+        <v>1.6</v>
+      </c>
       <c r="J630" t="s">
         <v>19</v>
       </c>
@@ -25238,6 +27125,9 @@
       <c r="H631">
         <v>53</v>
       </c>
+      <c r="I631">
+        <v>1.96</v>
+      </c>
       <c r="J631" t="s">
         <v>20</v>
       </c>
@@ -25273,6 +27163,9 @@
       <c r="H632">
         <v>59</v>
       </c>
+      <c r="I632">
+        <v>1.74</v>
+      </c>
       <c r="J632" t="s">
         <v>18</v>
       </c>
@@ -25308,6 +27201,9 @@
       <c r="H633">
         <v>82</v>
       </c>
+      <c r="I633">
+        <v>1.93</v>
+      </c>
       <c r="J633" t="s">
         <v>19</v>
       </c>
@@ -25343,6 +27239,9 @@
       <c r="H634">
         <v>57</v>
       </c>
+      <c r="I634">
+        <v>1.95</v>
+      </c>
       <c r="J634" t="s">
         <v>20</v>
       </c>
@@ -25378,6 +27277,9 @@
       <c r="H635">
         <v>51</v>
       </c>
+      <c r="I635">
+        <v>1.04</v>
+      </c>
       <c r="J635" t="s">
         <v>18</v>
       </c>
@@ -25413,6 +27315,9 @@
       <c r="H636">
         <v>69</v>
       </c>
+      <c r="I636">
+        <v>1.66</v>
+      </c>
       <c r="J636" t="s">
         <v>19</v>
       </c>
@@ -25448,6 +27353,9 @@
       <c r="H637">
         <v>93</v>
       </c>
+      <c r="I637">
+        <v>1.94</v>
+      </c>
       <c r="J637" t="s">
         <v>20</v>
       </c>
@@ -25483,6 +27391,9 @@
       <c r="H638">
         <v>96</v>
       </c>
+      <c r="I638">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="J638" t="s">
         <v>18</v>
       </c>
@@ -25518,6 +27429,9 @@
       <c r="H639">
         <v>91</v>
       </c>
+      <c r="I639">
+        <v>1.9</v>
+      </c>
       <c r="J639" t="s">
         <v>19</v>
       </c>
@@ -25553,6 +27467,9 @@
       <c r="H640">
         <v>64</v>
       </c>
+      <c r="I640">
+        <v>1.81</v>
+      </c>
       <c r="J640" t="s">
         <v>20</v>
       </c>
@@ -25588,6 +27505,9 @@
       <c r="H641">
         <v>55</v>
       </c>
+      <c r="I641">
+        <v>1.45</v>
+      </c>
       <c r="J641" t="s">
         <v>18</v>
       </c>
@@ -25623,6 +27543,9 @@
       <c r="H642">
         <v>84</v>
       </c>
+      <c r="I642">
+        <v>1.33</v>
+      </c>
       <c r="J642" t="s">
         <v>19</v>
       </c>
@@ -25658,6 +27581,9 @@
       <c r="H643">
         <v>87</v>
       </c>
+      <c r="I643">
+        <v>1.2</v>
+      </c>
       <c r="J643" t="s">
         <v>20</v>
       </c>
@@ -25693,6 +27619,9 @@
       <c r="H644">
         <v>76</v>
       </c>
+      <c r="I644">
+        <v>1.91</v>
+      </c>
       <c r="J644" t="s">
         <v>18</v>
       </c>
@@ -25728,6 +27657,9 @@
       <c r="H645">
         <v>99</v>
       </c>
+      <c r="I645">
+        <v>1.5</v>
+      </c>
       <c r="J645" t="s">
         <v>19</v>
       </c>
@@ -25763,6 +27695,9 @@
       <c r="H646">
         <v>100</v>
       </c>
+      <c r="I646">
+        <v>1.99</v>
+      </c>
       <c r="J646" t="s">
         <v>20</v>
       </c>
@@ -25798,6 +27733,9 @@
       <c r="H647">
         <v>96</v>
       </c>
+      <c r="I647">
+        <v>1.31</v>
+      </c>
       <c r="J647" t="s">
         <v>18</v>
       </c>
@@ -25833,6 +27771,9 @@
       <c r="H648">
         <v>99</v>
       </c>
+      <c r="I648">
+        <v>1.04</v>
+      </c>
       <c r="J648" t="s">
         <v>19</v>
       </c>
@@ -25868,6 +27809,9 @@
       <c r="H649">
         <v>76</v>
       </c>
+      <c r="I649">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J649" t="s">
         <v>20</v>
       </c>
@@ -25903,6 +27847,9 @@
       <c r="H650">
         <v>58</v>
       </c>
+      <c r="I650">
+        <v>1.18</v>
+      </c>
       <c r="J650" t="s">
         <v>18</v>
       </c>
@@ -25938,6 +27885,9 @@
       <c r="H651">
         <v>61</v>
       </c>
+      <c r="I651">
+        <v>1.24</v>
+      </c>
       <c r="J651" t="s">
         <v>19</v>
       </c>
@@ -25973,6 +27923,9 @@
       <c r="H652">
         <v>82</v>
       </c>
+      <c r="I652">
+        <v>2</v>
+      </c>
       <c r="J652" t="s">
         <v>20</v>
       </c>
@@ -26008,6 +27961,9 @@
       <c r="H653">
         <v>70</v>
       </c>
+      <c r="I653">
+        <v>1.81</v>
+      </c>
       <c r="J653" t="s">
         <v>18</v>
       </c>
@@ -26043,6 +27999,9 @@
       <c r="H654">
         <v>81</v>
       </c>
+      <c r="I654">
+        <v>1.69</v>
+      </c>
       <c r="J654" t="s">
         <v>19</v>
       </c>
@@ -26078,6 +28037,9 @@
       <c r="H655">
         <v>93</v>
       </c>
+      <c r="I655">
+        <v>1.76</v>
+      </c>
       <c r="J655" t="s">
         <v>20</v>
       </c>
@@ -26113,6 +28075,9 @@
       <c r="H656">
         <v>85</v>
       </c>
+      <c r="I656">
+        <v>1.95</v>
+      </c>
       <c r="J656" t="s">
         <v>18</v>
       </c>
@@ -26148,6 +28113,9 @@
       <c r="H657">
         <v>92</v>
       </c>
+      <c r="I657">
+        <v>1.61</v>
+      </c>
       <c r="J657" t="s">
         <v>19</v>
       </c>
@@ -26183,6 +28151,9 @@
       <c r="H658">
         <v>66</v>
       </c>
+      <c r="I658">
+        <v>1.48</v>
+      </c>
       <c r="J658" t="s">
         <v>20</v>
       </c>
@@ -26218,6 +28189,9 @@
       <c r="H659">
         <v>76</v>
       </c>
+      <c r="I659">
+        <v>1.72</v>
+      </c>
       <c r="J659" t="s">
         <v>18</v>
       </c>
@@ -26253,6 +28227,9 @@
       <c r="H660">
         <v>91</v>
       </c>
+      <c r="I660">
+        <v>1.67</v>
+      </c>
       <c r="J660" t="s">
         <v>19</v>
       </c>
@@ -26288,6 +28265,9 @@
       <c r="H661">
         <v>86</v>
       </c>
+      <c r="I661">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J661" t="s">
         <v>20</v>
       </c>
@@ -26323,6 +28303,9 @@
       <c r="H662">
         <v>51</v>
       </c>
+      <c r="I662">
+        <v>1.97</v>
+      </c>
       <c r="J662" t="s">
         <v>18</v>
       </c>
@@ -26358,6 +28341,9 @@
       <c r="H663">
         <v>70</v>
       </c>
+      <c r="I663">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="J663" t="s">
         <v>19</v>
       </c>
@@ -26393,6 +28379,9 @@
       <c r="H664">
         <v>89</v>
       </c>
+      <c r="I664">
+        <v>1.4</v>
+      </c>
       <c r="J664" t="s">
         <v>20</v>
       </c>
@@ -26427,6 +28416,9 @@
       </c>
       <c r="H665">
         <v>53</v>
+      </c>
+      <c r="I665">
+        <v>1.58</v>
       </c>
       <c r="J665" t="s">
         <v>18</v>
